--- a/Outputs/MonteCarlo_sim_wind.xlsx
+++ b/Outputs/MonteCarlo_sim_wind.xlsx
@@ -376,16 +376,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.347022485824998</v>
+        <v>0.7858970568112793</v>
       </c>
       <c r="C2">
-        <v>5.941795227769116</v>
+        <v>4.733656630364521</v>
       </c>
       <c r="D2">
-        <v>-0.7255597182360323</v>
+        <v>1.069102445516512</v>
       </c>
       <c r="E2">
-        <v>3.118385185931412</v>
+        <v>4.620471406486264</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -393,16 +393,16 @@
         <v>210.0840336134454</v>
       </c>
       <c r="B3">
-        <v>-2.347022120575702</v>
+        <v>0.7858974867267219</v>
       </c>
       <c r="C3">
-        <v>5.941794590432256</v>
+        <v>4.733656320800666</v>
       </c>
       <c r="D3">
-        <v>-0.7255599655808842</v>
+        <v>1.069101479603872</v>
       </c>
       <c r="E3">
-        <v>3.118385884415723</v>
+        <v>4.620471327840743</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -410,16 +410,16 @@
         <v>420.1680672268907</v>
       </c>
       <c r="B4">
-        <v>-2.34702238388276</v>
+        <v>0.7858972852291544</v>
       </c>
       <c r="C4">
-        <v>5.941794741867137</v>
+        <v>4.733656277273825</v>
       </c>
       <c r="D4">
-        <v>-0.7255593871225734</v>
+        <v>1.069102568378235</v>
       </c>
       <c r="E4">
-        <v>3.118384248399485</v>
+        <v>4.620471832606275</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -427,16 +427,16 @@
         <v>630.2521008403361</v>
       </c>
       <c r="B5">
-        <v>-2.347022785434043</v>
+        <v>0.7858975026920731</v>
       </c>
       <c r="C5">
-        <v>5.941795089595288</v>
+        <v>4.733656791356823</v>
       </c>
       <c r="D5">
-        <v>-0.7255597935084916</v>
+        <v>1.069103216073158</v>
       </c>
       <c r="E5">
-        <v>3.118385077693893</v>
+        <v>4.620471237650374</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -444,16 +444,16 @@
         <v>840.3361344537815</v>
       </c>
       <c r="B6">
-        <v>-0.003150356281730105</v>
+        <v>2.654785539844829</v>
       </c>
       <c r="C6">
-        <v>7.483955064426213</v>
+        <v>6.104890830199777</v>
       </c>
       <c r="D6">
-        <v>4.093272636466023</v>
+        <v>5.882835664230978</v>
       </c>
       <c r="E6">
-        <v>6.04152254637926</v>
+        <v>6.43241534658954</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -461,16 +461,16 @@
         <v>1050.420168067227</v>
       </c>
       <c r="B7">
-        <v>3.6970151473269</v>
+        <v>3.070909537117828</v>
       </c>
       <c r="C7">
-        <v>7.920046337070145</v>
+        <v>3.307403881602661</v>
       </c>
       <c r="D7">
-        <v>5.091636922583795</v>
+        <v>4.31353324343023</v>
       </c>
       <c r="E7">
-        <v>5.857512826522928</v>
+        <v>4.65423565888795</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -478,16 +478,16 @@
         <v>1260.504201680672</v>
       </c>
       <c r="B8">
-        <v>7.040825145705922</v>
+        <v>7.277710353792036</v>
       </c>
       <c r="C8">
-        <v>5.184020491842258</v>
+        <v>2.948353023665134</v>
       </c>
       <c r="D8">
-        <v>5.037190055181858</v>
+        <v>5.126658448317128</v>
       </c>
       <c r="E8">
-        <v>2.233998372743153</v>
+        <v>3.225704474976497</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -495,16 +495,16 @@
         <v>1470.588235294118</v>
       </c>
       <c r="B9">
-        <v>5.053265326043896</v>
+        <v>4.462980426789992</v>
       </c>
       <c r="C9">
-        <v>8.118021396393086</v>
+        <v>5.239516654778996</v>
       </c>
       <c r="D9">
-        <v>6.524298221112185</v>
+        <v>5.565718445127053</v>
       </c>
       <c r="E9">
-        <v>0.1087934655938727</v>
+        <v>3.349968194044203</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -512,16 +512,16 @@
         <v>1680.672268907563</v>
       </c>
       <c r="B10">
-        <v>1.266273679895382</v>
+        <v>1.810523496190266</v>
       </c>
       <c r="C10">
-        <v>10.97985456449096</v>
+        <v>6.409398524063766</v>
       </c>
       <c r="D10">
-        <v>5.868823591245936</v>
+        <v>4.164258140892512</v>
       </c>
       <c r="E10">
-        <v>0.9604389090748247</v>
+        <v>4.002529696885532</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -529,16 +529,16 @@
         <v>1890.756302521008</v>
       </c>
       <c r="B11">
-        <v>-1.618896595749708</v>
+        <v>-0.2328549935440156</v>
       </c>
       <c r="C11">
-        <v>11.49832758748601</v>
+        <v>6.64632878982974</v>
       </c>
       <c r="D11">
-        <v>5.556886251192839</v>
+        <v>3.657459439358443</v>
       </c>
       <c r="E11">
-        <v>4.514065040057547</v>
+        <v>5.280456028415416</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -546,16 +546,16 @@
         <v>2100.840336134454</v>
       </c>
       <c r="B12">
-        <v>-2.830652628585337</v>
+        <v>-0.7356478566349782</v>
       </c>
       <c r="C12">
-        <v>12.92173177128459</v>
+        <v>8.805603319268153</v>
       </c>
       <c r="D12">
-        <v>5.085926642784656</v>
+        <v>3.962348667066878</v>
       </c>
       <c r="E12">
-        <v>3.487412544605463</v>
+        <v>6.178591038910652</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -563,16 +563,16 @@
         <v>2310.924369747899</v>
       </c>
       <c r="B13">
-        <v>-1.87585462974729</v>
+        <v>0.8570075003394938</v>
       </c>
       <c r="C13">
-        <v>12.45293709384693</v>
+        <v>8.440533739794148</v>
       </c>
       <c r="D13">
-        <v>3.49601664392351</v>
+        <v>4.129814078653442</v>
       </c>
       <c r="E13">
-        <v>5.046318564680393</v>
+        <v>6.066274480356047</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -580,16 +580,16 @@
         <v>2521.008403361344</v>
       </c>
       <c r="B14">
-        <v>-0.4231541363013021</v>
+        <v>1.605208903625073</v>
       </c>
       <c r="C14">
-        <v>13.9380583973983</v>
+        <v>8.297099222621467</v>
       </c>
       <c r="D14">
-        <v>2.834737315570344</v>
+        <v>3.799866365913418</v>
       </c>
       <c r="E14">
-        <v>5.076147001264685</v>
+        <v>5.935895255217971</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -597,16 +597,16 @@
         <v>2731.09243697479</v>
       </c>
       <c r="B15">
-        <v>0.3722581228069711</v>
+        <v>0.1022431432746023</v>
       </c>
       <c r="C15">
-        <v>15.2512349314519</v>
+        <v>8.941390253209288</v>
       </c>
       <c r="D15">
-        <v>3.575431041109151</v>
+        <v>3.059622966184231</v>
       </c>
       <c r="E15">
-        <v>4.362602174272574</v>
+        <v>6.4099832989535</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -614,16 +614,16 @@
         <v>2941.176470588235</v>
       </c>
       <c r="B16">
-        <v>-0.0047821164969305</v>
+        <v>0.2732199418866641</v>
       </c>
       <c r="C16">
-        <v>14.12149806312638</v>
+        <v>10.07445142596559</v>
       </c>
       <c r="D16">
-        <v>3.145349628216701</v>
+        <v>3.706564576398476</v>
       </c>
       <c r="E16">
-        <v>2.621527548208496</v>
+        <v>6.196805668682439</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -631,16 +631,16 @@
         <v>3151.260504201681</v>
       </c>
       <c r="B17">
-        <v>0.7956220098517215</v>
+        <v>0.547074149293743</v>
       </c>
       <c r="C17">
-        <v>13.16442189718101</v>
+        <v>10.03013962569812</v>
       </c>
       <c r="D17">
-        <v>3.419283646853646</v>
+        <v>4.313732140265455</v>
       </c>
       <c r="E17">
-        <v>2.571043205504224</v>
+        <v>5.906456979928252</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -648,16 +648,16 @@
         <v>3361.344537815126</v>
       </c>
       <c r="B18">
-        <v>3.761937318097703</v>
+        <v>1.18847331985505</v>
       </c>
       <c r="C18">
-        <v>14.23683050217935</v>
+        <v>9.089411830792635</v>
       </c>
       <c r="D18">
-        <v>2.523475648227354</v>
+        <v>3.257242520744115</v>
       </c>
       <c r="E18">
-        <v>2.276971694502009</v>
+        <v>6.317673918977382</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -665,16 +665,16 @@
         <v>3571.428571428571</v>
       </c>
       <c r="B19">
-        <v>4.905927867710596</v>
+        <v>2.786987513988734</v>
       </c>
       <c r="C19">
-        <v>13.54828282531149</v>
+        <v>8.247289389004273</v>
       </c>
       <c r="D19">
-        <v>3.143624105031984</v>
+        <v>3.846755249910023</v>
       </c>
       <c r="E19">
-        <v>1.523236220970355</v>
+        <v>5.656635197289151</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -682,16 +682,16 @@
         <v>3781.512605042017</v>
       </c>
       <c r="B20">
-        <v>4.133248802939677</v>
+        <v>5.075378501795312</v>
       </c>
       <c r="C20">
-        <v>11.91832267087159</v>
+        <v>9.845947924507534</v>
       </c>
       <c r="D20">
-        <v>2.866599077693112</v>
+        <v>5.405148892170937</v>
       </c>
       <c r="E20">
-        <v>0.2171176069243081</v>
+        <v>5.653137868777283</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -699,16 +699,16 @@
         <v>3991.596638655462</v>
       </c>
       <c r="B21">
-        <v>2.95055910716304</v>
+        <v>7.054527408827518</v>
       </c>
       <c r="C21">
-        <v>10.98278955170771</v>
+        <v>10.71023452423087</v>
       </c>
       <c r="D21">
-        <v>2.133105133774684</v>
+        <v>6.773872504298067</v>
       </c>
       <c r="E21">
-        <v>0.6717175312404091</v>
+        <v>5.977333891811632</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -716,16 +716,16 @@
         <v>4201.680672268907</v>
       </c>
       <c r="B22">
-        <v>3.25193805689839</v>
+        <v>9.781827869602727</v>
       </c>
       <c r="C22">
-        <v>9.206240092918387</v>
+        <v>11.28791031066766</v>
       </c>
       <c r="D22">
-        <v>0.8695235277375861</v>
+        <v>6.78516727627014</v>
       </c>
       <c r="E22">
-        <v>0.6893454548650624</v>
+        <v>6.193861871111998</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -733,16 +733,16 @@
         <v>4411.764705882353</v>
       </c>
       <c r="B23">
-        <v>2.873429018507616</v>
+        <v>10.9164656884661</v>
       </c>
       <c r="C23">
-        <v>8.986754187922713</v>
+        <v>10.82372235797015</v>
       </c>
       <c r="D23">
-        <v>-0.01178206234497736</v>
+        <v>6.74300642806258</v>
       </c>
       <c r="E23">
-        <v>1.636087953099555</v>
+        <v>5.780995206681239</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -750,16 +750,16 @@
         <v>4621.848739495798</v>
       </c>
       <c r="B24">
-        <v>1.396752865057149</v>
+        <v>10.97976544273303</v>
       </c>
       <c r="C24">
-        <v>9.706703404080057</v>
+        <v>9.644336921831073</v>
       </c>
       <c r="D24">
-        <v>-0.3232379490331803</v>
+        <v>7.749562922613189</v>
       </c>
       <c r="E24">
-        <v>2.991854935807954</v>
+        <v>4.957092515927938</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -767,16 +767,16 @@
         <v>4831.932773109243</v>
       </c>
       <c r="B25">
-        <v>0.246447725549733</v>
+        <v>13.1698000042952</v>
       </c>
       <c r="C25">
-        <v>9.059445808107322</v>
+        <v>9.432286056810186</v>
       </c>
       <c r="D25">
-        <v>-1.38490383060392</v>
+        <v>8.419233833868434</v>
       </c>
       <c r="E25">
-        <v>2.189617465561773</v>
+        <v>4.335351235512446</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -784,16 +784,16 @@
         <v>5042.016806722689</v>
       </c>
       <c r="B26">
-        <v>-2.996009633887256</v>
+        <v>12.76401452485614</v>
       </c>
       <c r="C26">
-        <v>9.30968088659289</v>
+        <v>9.371629735812022</v>
       </c>
       <c r="D26">
-        <v>-0.7962145779632399</v>
+        <v>10.09603838924864</v>
       </c>
       <c r="E26">
-        <v>1.102387037688657</v>
+        <v>3.673145424594281</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -801,16 +801,16 @@
         <v>5252.100840336134</v>
       </c>
       <c r="B27">
-        <v>-4.781250581812287</v>
+        <v>12.77482865055874</v>
       </c>
       <c r="C27">
-        <v>10.35652435399406</v>
+        <v>9.46639156605497</v>
       </c>
       <c r="D27">
-        <v>-0.6808242188046094</v>
+        <v>10.41211042021416</v>
       </c>
       <c r="E27">
-        <v>0.3057499883699899</v>
+        <v>3.283544131876328</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -818,16 +818,16 @@
         <v>5462.18487394958</v>
       </c>
       <c r="B28">
-        <v>-5.412244924843928</v>
+        <v>13.06668287053787</v>
       </c>
       <c r="C28">
-        <v>12.73441483710036</v>
+        <v>10.23531357964291</v>
       </c>
       <c r="D28">
-        <v>-1.237087655978563</v>
+        <v>9.138597913064579</v>
       </c>
       <c r="E28">
-        <v>0.1292494177390759</v>
+        <v>4.604216428427002</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -835,16 +835,16 @@
         <v>5672.268907563025</v>
       </c>
       <c r="B29">
-        <v>-6.35038697099933</v>
+        <v>11.81549750006803</v>
       </c>
       <c r="C29">
-        <v>13.15083938097969</v>
+        <v>11.00059813693374</v>
       </c>
       <c r="D29">
-        <v>-0.04106340300092715</v>
+        <v>8.148094123785</v>
       </c>
       <c r="E29">
-        <v>0.2716169544719431</v>
+        <v>5.488586421570493</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -852,16 +852,16 @@
         <v>5882.35294117647</v>
       </c>
       <c r="B30">
-        <v>-6.276036907812931</v>
+        <v>11.21178085800179</v>
       </c>
       <c r="C30">
-        <v>13.50043677347418</v>
+        <v>11.50467563665863</v>
       </c>
       <c r="D30">
-        <v>0.8509871715602095</v>
+        <v>7.563152508658869</v>
       </c>
       <c r="E30">
-        <v>1.26021261005144</v>
+        <v>5.931375716989277</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -869,16 +869,16 @@
         <v>6092.436974789915</v>
       </c>
       <c r="B31">
-        <v>-4.576076733626919</v>
+        <v>12.97892388258746</v>
       </c>
       <c r="C31">
-        <v>14.6881497584998</v>
+        <v>9.844796976886638</v>
       </c>
       <c r="D31">
-        <v>0.3551053010054392</v>
+        <v>7.294427730983684</v>
       </c>
       <c r="E31">
-        <v>3.952450783379647</v>
+        <v>5.69752345129116</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -886,16 +886,16 @@
         <v>6302.521008403362</v>
       </c>
       <c r="B32">
-        <v>-7.669421000004188</v>
+        <v>11.60250723554166</v>
       </c>
       <c r="C32">
-        <v>13.78226914965436</v>
+        <v>10.86812686503596</v>
       </c>
       <c r="D32">
-        <v>0.03794117006723141</v>
+        <v>7.291231839538902</v>
       </c>
       <c r="E32">
-        <v>3.536140726342725</v>
+        <v>5.646955995080265</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -903,16 +903,16 @@
         <v>6512.605042016807</v>
       </c>
       <c r="B33">
-        <v>-8.784056890546861</v>
+        <v>11.55164993918111</v>
       </c>
       <c r="C33">
-        <v>13.56681774048039</v>
+        <v>10.84299715382477</v>
       </c>
       <c r="D33">
-        <v>0.07453022094151507</v>
+        <v>7.587778052859177</v>
       </c>
       <c r="E33">
-        <v>3.674472157701622</v>
+        <v>5.462282117265585</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -920,16 +920,16 @@
         <v>6722.689075630252</v>
       </c>
       <c r="B34">
-        <v>-7.886713635693823</v>
+        <v>13.34378027708365</v>
       </c>
       <c r="C34">
-        <v>12.74651723502327</v>
+        <v>10.01314450452798</v>
       </c>
       <c r="D34">
-        <v>-0.2922486635985475</v>
+        <v>7.647184332213851</v>
       </c>
       <c r="E34">
-        <v>3.395031532068998</v>
+        <v>5.319135585287379</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -937,16 +937,16 @@
         <v>6932.773109243697</v>
       </c>
       <c r="B35">
-        <v>-7.427118955181369</v>
+        <v>13.930648973574</v>
       </c>
       <c r="C35">
-        <v>9.868486280945564</v>
+        <v>9.36046167453198</v>
       </c>
       <c r="D35">
-        <v>0.003642185163878153</v>
+        <v>8.58582607554739</v>
       </c>
       <c r="E35">
-        <v>1.348989308082639</v>
+        <v>5.131892275791968</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -954,16 +954,16 @@
         <v>7142.857142857142</v>
       </c>
       <c r="B36">
-        <v>-5.741695262124276</v>
+        <v>15.36315911389596</v>
       </c>
       <c r="C36">
-        <v>8.408746266813164</v>
+        <v>8.060609144016171</v>
       </c>
       <c r="D36">
-        <v>0.3746507400143582</v>
+        <v>9.016744553334332</v>
       </c>
       <c r="E36">
-        <v>0.6646151132844751</v>
+        <v>4.591441475966459</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -971,16 +971,16 @@
         <v>7352.941176470588</v>
       </c>
       <c r="B37">
-        <v>-4.138439746379202</v>
+        <v>16.83831041899321</v>
       </c>
       <c r="C37">
-        <v>4.78352533081208</v>
+        <v>7.980524520741814</v>
       </c>
       <c r="D37">
-        <v>1.147356616482003</v>
+        <v>9.541727515428811</v>
       </c>
       <c r="E37">
-        <v>-1.894739722350321</v>
+        <v>3.625385701957409</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -988,16 +988,16 @@
         <v>7563.025210084033</v>
       </c>
       <c r="B38">
-        <v>-5.107992168950796</v>
+        <v>16.74943931130636</v>
       </c>
       <c r="C38">
-        <v>4.959078053259949</v>
+        <v>7.328967393986781</v>
       </c>
       <c r="D38">
-        <v>2.154767835212407</v>
+        <v>11.17924384154639</v>
       </c>
       <c r="E38">
-        <v>-0.8843604077955773</v>
+        <v>2.44821272356594</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1005,16 +1005,16 @@
         <v>7773.109243697479</v>
       </c>
       <c r="B39">
-        <v>-4.926417326623517</v>
+        <v>15.49271383673586</v>
       </c>
       <c r="C39">
-        <v>7.155542469995282</v>
+        <v>6.782012464687137</v>
       </c>
       <c r="D39">
-        <v>2.740779924295558</v>
+        <v>11.34081239909307</v>
       </c>
       <c r="E39">
-        <v>0.8743138854648445</v>
+        <v>2.652120414723973</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1022,16 +1022,16 @@
         <v>7983.193277310924</v>
       </c>
       <c r="B40">
-        <v>-5.456544166997181</v>
+        <v>13.05699452153689</v>
       </c>
       <c r="C40">
-        <v>8.546137669851039</v>
+        <v>6.250950880893559</v>
       </c>
       <c r="D40">
-        <v>4.265268258427153</v>
+        <v>12.42800868495898</v>
       </c>
       <c r="E40">
-        <v>2.157235852853406</v>
+        <v>3.041112917675808</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1039,16 +1039,16 @@
         <v>8193.27731092437</v>
       </c>
       <c r="B41">
-        <v>-3.919155008665927</v>
+        <v>13.90277694743666</v>
       </c>
       <c r="C41">
-        <v>8.320967463395501</v>
+        <v>6.160734711272331</v>
       </c>
       <c r="D41">
-        <v>4.248513157310165</v>
+        <v>12.01288941316127</v>
       </c>
       <c r="E41">
-        <v>2.187417169339042</v>
+        <v>3.455054567049914</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1056,16 +1056,16 @@
         <v>8403.361344537814</v>
       </c>
       <c r="B42">
-        <v>-2.819939087069951</v>
+        <v>14.86547282479389</v>
       </c>
       <c r="C42">
-        <v>8.077946467821045</v>
+        <v>6.658760075123528</v>
       </c>
       <c r="D42">
-        <v>4.277280548099084</v>
+        <v>11.56262307507964</v>
       </c>
       <c r="E42">
-        <v>1.906007719718362</v>
+        <v>4.025054101911859</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1073,16 +1073,16 @@
         <v>8613.44537815126</v>
       </c>
       <c r="B43">
-        <v>-1.494409037112854</v>
+        <v>16.12597966865469</v>
       </c>
       <c r="C43">
-        <v>7.247973614755512</v>
+        <v>7.511269616912076</v>
       </c>
       <c r="D43">
-        <v>3.956297687493832</v>
+        <v>10.84367703301909</v>
       </c>
       <c r="E43">
-        <v>1.24923266377571</v>
+        <v>4.343345462103152</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1090,16 +1090,16 @@
         <v>8823.529411764706</v>
       </c>
       <c r="B44">
-        <v>-0.2025493003208716</v>
+        <v>17.12105597269831</v>
       </c>
       <c r="C44">
-        <v>6.211293138063173</v>
+        <v>8.277288551945956</v>
       </c>
       <c r="D44">
-        <v>4.117317162437095</v>
+        <v>10.31622981589577</v>
       </c>
       <c r="E44">
-        <v>0.6301385937652459</v>
+        <v>4.409334404384698</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1107,16 +1107,16 @@
         <v>9033.613445378151</v>
       </c>
       <c r="B45">
-        <v>1.252246860338046</v>
+        <v>18.12784346025354</v>
       </c>
       <c r="C45">
-        <v>5.434922159918605</v>
+        <v>8.798133028688941</v>
       </c>
       <c r="D45">
-        <v>4.471756935958789</v>
+        <v>9.847413946840534</v>
       </c>
       <c r="E45">
-        <v>0.2922931462204477</v>
+        <v>4.342255031707409</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1124,16 +1124,16 @@
         <v>9243.697478991597</v>
       </c>
       <c r="B46">
-        <v>3.060076255308612</v>
+        <v>19.52490598974886</v>
       </c>
       <c r="C46">
-        <v>4.380195832164577</v>
+        <v>9.449453482949156</v>
       </c>
       <c r="D46">
-        <v>4.561909671643797</v>
+        <v>9.263808082850446</v>
       </c>
       <c r="E46">
-        <v>-0.6692080218201468</v>
+        <v>4.631793277980874</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1141,16 +1141,16 @@
         <v>9453.781512605041</v>
       </c>
       <c r="B47">
-        <v>3.951454246047522</v>
+        <v>21.64262547533156</v>
       </c>
       <c r="C47">
-        <v>3.447266192191266</v>
+        <v>10.92474007940162</v>
       </c>
       <c r="D47">
-        <v>3.855649306813822</v>
+        <v>9.060475586587629</v>
       </c>
       <c r="E47">
-        <v>-2.307173920190055</v>
+        <v>5.685888185931084</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1158,16 +1158,16 @@
         <v>9663.865546218487</v>
       </c>
       <c r="B48">
-        <v>7.458618920239127</v>
+        <v>20.9378166761851</v>
       </c>
       <c r="C48">
-        <v>0.112629869690041</v>
+        <v>10.00991095298562</v>
       </c>
       <c r="D48">
-        <v>4.366587801630876</v>
+        <v>7.089339389359797</v>
       </c>
       <c r="E48">
-        <v>-4.404679523973045</v>
+        <v>4.936667554970148</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1175,16 +1175,16 @@
         <v>9873.949579831933</v>
       </c>
       <c r="B49">
-        <v>6.673003966952503</v>
+        <v>21.42797762094687</v>
       </c>
       <c r="C49">
-        <v>0.0005897649689188267</v>
+        <v>10.28380714907045</v>
       </c>
       <c r="D49">
-        <v>3.664473899972959</v>
+        <v>7.104351571457569</v>
       </c>
       <c r="E49">
-        <v>-4.181394313444915</v>
+        <v>4.618543169009508</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1192,16 +1192,16 @@
         <v>10084.03361344538</v>
       </c>
       <c r="B50">
-        <v>2.987573076322963</v>
+        <v>20.21894511376481</v>
       </c>
       <c r="C50">
-        <v>2.674985877483366</v>
+        <v>10.60730056342531</v>
       </c>
       <c r="D50">
-        <v>3.484617160700889</v>
+        <v>8.794729238971161</v>
       </c>
       <c r="E50">
-        <v>-2.045533883679672</v>
+        <v>4.698423253602241</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1209,16 +1209,16 @@
         <v>10294.11764705882</v>
       </c>
       <c r="B51">
-        <v>-0.2733233040031458</v>
+        <v>17.5418167669378</v>
       </c>
       <c r="C51">
-        <v>5.619986225058934</v>
+        <v>10.53609282271641</v>
       </c>
       <c r="D51">
-        <v>4.098074340540675</v>
+        <v>10.40871564584536</v>
       </c>
       <c r="E51">
-        <v>0.03545939480622096</v>
+        <v>5.05279222735373</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1226,16 +1226,16 @@
         <v>10504.20168067227</v>
       </c>
       <c r="B52">
-        <v>-1.33131166005087</v>
+        <v>16.18408847414974</v>
       </c>
       <c r="C52">
-        <v>6.906330889792448</v>
+        <v>10.49824396298935</v>
       </c>
       <c r="D52">
-        <v>4.298318639673964</v>
+        <v>10.81165998231077</v>
       </c>
       <c r="E52">
-        <v>0.7700887111425003</v>
+        <v>5.406622981489512</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1243,16 +1243,16 @@
         <v>10714.28571428571</v>
       </c>
       <c r="B53">
-        <v>-0.3754038081125959</v>
+        <v>17.2744973761987</v>
       </c>
       <c r="C53">
-        <v>7.201297029179064</v>
+        <v>10.4656061059366</v>
       </c>
       <c r="D53">
-        <v>3.633980791138828</v>
+        <v>10.01839265450718</v>
       </c>
       <c r="E53">
-        <v>0.8784707133061516</v>
+        <v>5.610512087967072</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1260,16 +1260,16 @@
         <v>10924.36974789916</v>
       </c>
       <c r="B54">
-        <v>0.07905751013218598</v>
+        <v>18.92300484213189</v>
       </c>
       <c r="C54">
-        <v>8.002965297927576</v>
+        <v>10.10992233481925</v>
       </c>
       <c r="D54">
-        <v>2.820556999050885</v>
+        <v>9.372157609504184</v>
       </c>
       <c r="E54">
-        <v>1.651692769230423</v>
+        <v>5.639067586484239</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1277,16 +1277,16 @@
         <v>11134.4537815126</v>
       </c>
       <c r="B55">
-        <v>-0.1775486090102625</v>
+        <v>20.41795351821191</v>
       </c>
       <c r="C55">
-        <v>8.685798513422398</v>
+        <v>9.633691343993355</v>
       </c>
       <c r="D55">
-        <v>2.27690665149478</v>
+        <v>9.100505544937842</v>
       </c>
       <c r="E55">
-        <v>2.355242084661153</v>
+        <v>5.650495101383446</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1294,16 +1294,16 @@
         <v>11344.53781512605</v>
       </c>
       <c r="B56">
-        <v>-1.487554484733741</v>
+        <v>21.36229543412863</v>
       </c>
       <c r="C56">
-        <v>10.12956746077383</v>
+        <v>8.89953640239532</v>
       </c>
       <c r="D56">
-        <v>2.404257626496246</v>
+        <v>9.703282959351965</v>
       </c>
       <c r="E56">
-        <v>3.550977441376584</v>
+        <v>5.869476733583038</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1311,16 +1311,16 @@
         <v>11554.6218487395</v>
       </c>
       <c r="B57">
-        <v>-5.41580812959497</v>
+        <v>20.00555332670394</v>
       </c>
       <c r="C57">
-        <v>11.95433020799192</v>
+        <v>7.618880316290441</v>
       </c>
       <c r="D57">
-        <v>3.207287480363963</v>
+        <v>12.14675220737424</v>
       </c>
       <c r="E57">
-        <v>5.349365535084892</v>
+        <v>5.933816709797822</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1328,16 +1328,16 @@
         <v>11764.70588235294</v>
       </c>
       <c r="B58">
-        <v>-6.138186313691838</v>
+        <v>20.24475488758324</v>
       </c>
       <c r="C58">
-        <v>13.15154535637499</v>
+        <v>6.196563493373627</v>
       </c>
       <c r="D58">
-        <v>3.753771322317572</v>
+        <v>13.08894157984427</v>
       </c>
       <c r="E58">
-        <v>6.781978828689597</v>
+        <v>5.755893163606824</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1345,16 +1345,16 @@
         <v>11974.78991596639</v>
       </c>
       <c r="B59">
-        <v>-6.452258272427553</v>
+        <v>20.57692357744037</v>
       </c>
       <c r="C59">
-        <v>14.09751145476734</v>
+        <v>5.722699239627717</v>
       </c>
       <c r="D59">
-        <v>4.379129895154222</v>
+        <v>13.61048517739358</v>
       </c>
       <c r="E59">
-        <v>7.455061165153463</v>
+        <v>5.84799233904057</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1362,16 +1362,16 @@
         <v>12184.87394957983</v>
       </c>
       <c r="B60">
-        <v>-6.522207516581627</v>
+        <v>19.80529811586293</v>
       </c>
       <c r="C60">
-        <v>12.81183620690848</v>
+        <v>6.45721940793577</v>
       </c>
       <c r="D60">
-        <v>5.069382797120493</v>
+        <v>13.1764244197521</v>
       </c>
       <c r="E60">
-        <v>5.924672930263631</v>
+        <v>6.060832110956097</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1379,16 +1379,16 @@
         <v>12394.95798319328</v>
       </c>
       <c r="B61">
-        <v>-7.083536670342742</v>
+        <v>17.98230847337183</v>
       </c>
       <c r="C61">
-        <v>11.42859157101539</v>
+        <v>5.96168753504626</v>
       </c>
       <c r="D61">
-        <v>5.289003001747991</v>
+        <v>11.49546306994024</v>
       </c>
       <c r="E61">
-        <v>5.029069502445367</v>
+        <v>5.714329330231003</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1396,16 +1396,16 @@
         <v>12605.04201680672</v>
       </c>
       <c r="B62">
-        <v>-9.906274167839968</v>
+        <v>19.15633756407479</v>
       </c>
       <c r="C62">
-        <v>11.11848661530119</v>
+        <v>5.590912156353966</v>
       </c>
       <c r="D62">
-        <v>5.560271849182813</v>
+        <v>13.52719609187941</v>
       </c>
       <c r="E62">
-        <v>5.048132303627669</v>
+        <v>6.104292454946047</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1413,16 +1413,16 @@
         <v>12815.12605042017</v>
       </c>
       <c r="B63">
-        <v>-10.77755563206158</v>
+        <v>23.1128736647563</v>
       </c>
       <c r="C63">
-        <v>12.83609728458205</v>
+        <v>5.442520129185851</v>
       </c>
       <c r="D63">
-        <v>5.444360905399135</v>
+        <v>17.91089476122329</v>
       </c>
       <c r="E63">
-        <v>6.972731323408574</v>
+        <v>6.108952516015329</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1430,16 +1430,16 @@
         <v>13025.21008403361</v>
       </c>
       <c r="B64">
-        <v>-10.14764795548231</v>
+        <v>24.62145522579434</v>
       </c>
       <c r="C64">
-        <v>14.56738242570973</v>
+        <v>5.334112470783412</v>
       </c>
       <c r="D64">
-        <v>6.16268025971026</v>
+        <v>20.75077721435948</v>
       </c>
       <c r="E64">
-        <v>8.705019901667255</v>
+        <v>5.923904610188941</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1447,16 +1447,16 @@
         <v>13235.29411764706</v>
       </c>
       <c r="B65">
-        <v>-8.448719455951288</v>
+        <v>22.27112945138721</v>
       </c>
       <c r="C65">
-        <v>15.53249896772864</v>
+        <v>4.572526079584792</v>
       </c>
       <c r="D65">
-        <v>7.780424305060967</v>
+        <v>20.77040827220282</v>
       </c>
       <c r="E65">
-        <v>10.13984651325979</v>
+        <v>5.544468330769885</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1464,16 +1464,16 @@
         <v>13445.3781512605</v>
       </c>
       <c r="B66">
-        <v>-6.582265925130855</v>
+        <v>15.22661077713872</v>
       </c>
       <c r="C66">
-        <v>15.58160421022339</v>
+        <v>4.032837327030009</v>
       </c>
       <c r="D66">
-        <v>9.422836925082935</v>
+        <v>16.62291290333104</v>
       </c>
       <c r="E66">
-        <v>11.32451417883576</v>
+        <v>5.417908732083926</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1481,16 +1481,16 @@
         <v>13655.46218487395</v>
       </c>
       <c r="B67">
-        <v>-6.907849823405407</v>
+        <v>15.65408844988235</v>
       </c>
       <c r="C67">
-        <v>13.64324356393956</v>
+        <v>2.316125583310453</v>
       </c>
       <c r="D67">
-        <v>7.312219885484293</v>
+        <v>13.28934695672985</v>
       </c>
       <c r="E67">
-        <v>10.68428326432536</v>
+        <v>4.317543762968548</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1498,16 +1498,16 @@
         <v>13865.54621848739</v>
       </c>
       <c r="B68">
-        <v>-5.68123112177099</v>
+        <v>16.77825852852921</v>
       </c>
       <c r="C68">
-        <v>13.15740913649124</v>
+        <v>1.576270077098538</v>
       </c>
       <c r="D68">
-        <v>6.925336994259627</v>
+        <v>13.22439764632373</v>
       </c>
       <c r="E68">
-        <v>10.73837005466324</v>
+        <v>3.84526114184913</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1515,16 +1515,16 @@
         <v>14075.63025210084</v>
       </c>
       <c r="B69">
-        <v>-2.409339852457549</v>
+        <v>15.77051441448471</v>
       </c>
       <c r="C69">
-        <v>13.50177981878025</v>
+        <v>1.002682452732963</v>
       </c>
       <c r="D69">
-        <v>8.59681372327343</v>
+        <v>14.00396273182065</v>
       </c>
       <c r="E69">
-        <v>10.60143955901467</v>
+        <v>3.374457998449555</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1532,16 +1532,16 @@
         <v>14285.71428571428</v>
       </c>
       <c r="B70">
-        <v>-0.7991462163596825</v>
+        <v>14.01205810480752</v>
       </c>
       <c r="C70">
-        <v>15.06905201072545</v>
+        <v>0.5046970664025761</v>
       </c>
       <c r="D70">
-        <v>9.448175910504627</v>
+        <v>13.64264844927016</v>
       </c>
       <c r="E70">
-        <v>10.15549841924944</v>
+        <v>2.838617162647817</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1549,16 +1549,16 @@
         <v>14495.79831932773</v>
       </c>
       <c r="B71">
-        <v>1.548247382197703</v>
+        <v>14.05682913227646</v>
       </c>
       <c r="C71">
-        <v>13.16452740050683</v>
+        <v>-0.171165087372068</v>
       </c>
       <c r="D71">
-        <v>10.02922833836021</v>
+        <v>13.67669659894704</v>
       </c>
       <c r="E71">
-        <v>9.143413356947629</v>
+        <v>2.220736785243968</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1566,16 +1566,16 @@
         <v>14705.88235294118</v>
       </c>
       <c r="B72">
-        <v>7.661854241960802</v>
+        <v>15.18669444230447</v>
       </c>
       <c r="C72">
-        <v>10.22461540024472</v>
+        <v>0.5006430324096263</v>
       </c>
       <c r="D72">
-        <v>11.54943508567204</v>
+        <v>13.55204817124757</v>
       </c>
       <c r="E72">
-        <v>9.349264864706164</v>
+        <v>2.617342732822944</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1583,16 +1583,16 @@
         <v>14915.96638655462</v>
       </c>
       <c r="B73">
-        <v>10.75618870066925</v>
+        <v>14.04375810693975</v>
       </c>
       <c r="C73">
-        <v>8.971408755805971</v>
+        <v>2.594816242727908</v>
       </c>
       <c r="D73">
-        <v>11.74964363258531</v>
+        <v>10.85789518633608</v>
       </c>
       <c r="E73">
-        <v>10.31504119575309</v>
+        <v>3.99583846677481</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1600,16 +1600,16 @@
         <v>15126.05042016807</v>
       </c>
       <c r="B74">
-        <v>11.52727232843289</v>
+        <v>10.9372165178171</v>
       </c>
       <c r="C74">
-        <v>10.08302148722544</v>
+        <v>1.157691445670363</v>
       </c>
       <c r="D74">
-        <v>10.86318561333613</v>
+        <v>8.037797351042974</v>
       </c>
       <c r="E74">
-        <v>13.69851967717855</v>
+        <v>2.766442877539651</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1617,16 +1617,16 @@
         <v>15336.13445378151</v>
       </c>
       <c r="B75">
-        <v>12.21391215453933</v>
+        <v>10.56484070725515</v>
       </c>
       <c r="C75">
-        <v>12.51016737712119</v>
+        <v>-1.081214997234161</v>
       </c>
       <c r="D75">
-        <v>8.63163547260163</v>
+        <v>6.977068291941335</v>
       </c>
       <c r="E75">
-        <v>15.72427925281486</v>
+        <v>1.267329185928288</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1634,16 +1634,16 @@
         <v>15546.21848739496</v>
       </c>
       <c r="B76">
-        <v>11.50635384462495</v>
+        <v>10.29439673807476</v>
       </c>
       <c r="C76">
-        <v>17.75547400988168</v>
+        <v>-0.4989692165488639</v>
       </c>
       <c r="D76">
-        <v>9.312312594721751</v>
+        <v>8.474470554673198</v>
       </c>
       <c r="E76">
-        <v>15.14532166937289</v>
+        <v>3.284797227234899</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1651,16 +1651,16 @@
         <v>15756.3025210084</v>
       </c>
       <c r="B77">
-        <v>8.420474111392913</v>
+        <v>10.70542553893307</v>
       </c>
       <c r="C77">
-        <v>18.17509049730393</v>
+        <v>2.347395205517741</v>
       </c>
       <c r="D77">
-        <v>10.15563498206867</v>
+        <v>11.00184546714104</v>
       </c>
       <c r="E77">
-        <v>10.29707891706902</v>
+        <v>3.663463560836398</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1668,16 +1668,16 @@
         <v>15966.38655462185</v>
       </c>
       <c r="B78">
-        <v>7.569400640694017</v>
+        <v>7.26383465341482</v>
       </c>
       <c r="C78">
-        <v>16.85180960105663</v>
+        <v>3.290545396831455</v>
       </c>
       <c r="D78">
-        <v>11.66218388084337</v>
+        <v>10.7618804540469</v>
       </c>
       <c r="E78">
-        <v>7.756605810028507</v>
+        <v>3.027226786030239</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1685,16 +1685,16 @@
         <v>16176.47058823529</v>
       </c>
       <c r="B79">
-        <v>10.66759549818287</v>
+        <v>2.63774744689485</v>
       </c>
       <c r="C79">
-        <v>14.33062000252216</v>
+        <v>0.7403939792099399</v>
       </c>
       <c r="D79">
-        <v>11.51759531875349</v>
+        <v>7.431745473584144</v>
       </c>
       <c r="E79">
-        <v>9.439796376658876</v>
+        <v>2.318855713209402</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1702,16 +1702,16 @@
         <v>16386.55462184874</v>
       </c>
       <c r="B80">
-        <v>8.928045450030272</v>
+        <v>4.499195457953119</v>
       </c>
       <c r="C80">
-        <v>11.38873151360689</v>
+        <v>-0.5172927253720907</v>
       </c>
       <c r="D80">
-        <v>9.76766099019183</v>
+        <v>8.314043673546472</v>
       </c>
       <c r="E80">
-        <v>10.53315007132613</v>
+        <v>2.463062833954757</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1719,16 +1719,16 @@
         <v>16596.63865546219</v>
       </c>
       <c r="B81">
-        <v>7.138438143841476</v>
+        <v>5.45128897002555</v>
       </c>
       <c r="C81">
-        <v>10.94451007095512</v>
+        <v>-0.5128311103501955</v>
       </c>
       <c r="D81">
-        <v>7.761377107920758</v>
+        <v>8.013547686135112</v>
       </c>
       <c r="E81">
-        <v>8.626047596785366</v>
+        <v>2.254970658355921</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1736,16 +1736,16 @@
         <v>16806.72268907563</v>
       </c>
       <c r="B82">
-        <v>8.031196522637563</v>
+        <v>3.886341050473024</v>
       </c>
       <c r="C82">
-        <v>11.39530374751924</v>
+        <v>-1.523777772704011</v>
       </c>
       <c r="D82">
-        <v>7.911583943000603</v>
+        <v>7.56371816788821</v>
       </c>
       <c r="E82">
-        <v>7.960827680993333</v>
+        <v>1.743089691504792</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1753,16 +1753,16 @@
         <v>17016.80672268907</v>
       </c>
       <c r="B83">
-        <v>8.78546494832711</v>
+        <v>1.997307706142084</v>
       </c>
       <c r="C83">
-        <v>10.99699118925957</v>
+        <v>-3.155715594574483</v>
       </c>
       <c r="D83">
-        <v>8.809724810178439</v>
+        <v>7.654348019714158</v>
       </c>
       <c r="E83">
-        <v>10.03904141773841</v>
+        <v>1.523746325353447</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1770,16 +1770,16 @@
         <v>17226.89075630252</v>
       </c>
       <c r="B84">
-        <v>9.020508934540517</v>
+        <v>0.8091267439811376</v>
       </c>
       <c r="C84">
-        <v>11.13166926329771</v>
+        <v>-3.62656457082737</v>
       </c>
       <c r="D84">
-        <v>9.454711825881589</v>
+        <v>8.029266980391403</v>
       </c>
       <c r="E84">
-        <v>11.78959355352411</v>
+        <v>1.562660075300387</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1787,16 +1787,16 @@
         <v>17436.97478991597</v>
       </c>
       <c r="B85">
-        <v>9.797581295527813</v>
+        <v>-0.1780627411946716</v>
       </c>
       <c r="C85">
-        <v>12.65336897497271</v>
+        <v>-1.998428287982247</v>
       </c>
       <c r="D85">
-        <v>9.931889856855586</v>
+        <v>8.055977848524792</v>
       </c>
       <c r="E85">
-        <v>11.14100888187503</v>
+        <v>1.722552760158645</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1804,16 +1804,16 @@
         <v>17647.05882352941</v>
       </c>
       <c r="B86">
-        <v>10.28756017519103</v>
+        <v>-0.503485848932252</v>
       </c>
       <c r="C86">
-        <v>14.02364992249099</v>
+        <v>0.2288297734703333</v>
       </c>
       <c r="D86">
-        <v>10.09204299556891</v>
+        <v>8.048342264225258</v>
       </c>
       <c r="E86">
-        <v>9.364165149248549</v>
+        <v>1.756989039392548</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1821,16 +1821,16 @@
         <v>17857.14285714286</v>
       </c>
       <c r="B87">
-        <v>9.549306633464226</v>
+        <v>0.531263057200948</v>
       </c>
       <c r="C87">
-        <v>14.350131004956</v>
+        <v>-0.2319382270725669</v>
       </c>
       <c r="D87">
-        <v>9.393836692072485</v>
+        <v>8.296071251263829</v>
       </c>
       <c r="E87">
-        <v>7.980834087594826</v>
+        <v>1.061239543636873</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1838,16 +1838,16 @@
         <v>18067.2268907563</v>
       </c>
       <c r="B88">
-        <v>7.887564065392977</v>
+        <v>3.038395966628018</v>
       </c>
       <c r="C88">
-        <v>9.812104065639536</v>
+        <v>-4.216133327070091</v>
       </c>
       <c r="D88">
-        <v>7.194767900647031</v>
+        <v>8.211074639892972</v>
       </c>
       <c r="E88">
-        <v>9.695178516111021</v>
+        <v>-0.2836518125796079</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1855,16 +1855,16 @@
         <v>18277.31092436975</v>
       </c>
       <c r="B89">
-        <v>6.260105195878726</v>
+        <v>6.545928916204714</v>
       </c>
       <c r="C89">
-        <v>7.0275950755826</v>
+        <v>-6.472105979197681</v>
       </c>
       <c r="D89">
-        <v>4.976736997085329</v>
+        <v>8.239980588355916</v>
       </c>
       <c r="E89">
-        <v>8.940163318002101</v>
+        <v>-1.713687418264589</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1872,16 +1872,16 @@
         <v>18487.39495798319</v>
       </c>
       <c r="B90">
-        <v>3.534085232265485</v>
+        <v>7.848443012920475</v>
       </c>
       <c r="C90">
-        <v>8.517325348530049</v>
+        <v>-5.806087217099536</v>
       </c>
       <c r="D90">
-        <v>2.839945390291176</v>
+        <v>6.250792060789637</v>
       </c>
       <c r="E90">
-        <v>10.26933374266331</v>
+        <v>0.6763691134053309</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1889,16 +1889,16 @@
         <v>18697.47899159664</v>
       </c>
       <c r="B91">
-        <v>2.275598482697277</v>
+        <v>1.110142941037758</v>
       </c>
       <c r="C91">
-        <v>7.859471320734626</v>
+        <v>-4.111815364058677</v>
       </c>
       <c r="D91">
-        <v>1.965410767213562</v>
+        <v>0.6823077753100109</v>
       </c>
       <c r="E91">
-        <v>11.58023922484724</v>
+        <v>3.382202111321616</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1906,16 +1906,16 @@
         <v>18907.56302521008</v>
       </c>
       <c r="B92">
-        <v>-3.901383783337249</v>
+        <v>-1.070858719646563</v>
       </c>
       <c r="C92">
-        <v>6.519105655613266</v>
+        <v>0.60732345291865</v>
       </c>
       <c r="D92">
-        <v>0.8927233677001337</v>
+        <v>2.673482103319973</v>
       </c>
       <c r="E92">
-        <v>3.788542430655865</v>
+        <v>3.600113737713325</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1923,16 +1923,16 @@
         <v>19117.64705882353</v>
       </c>
       <c r="B93">
-        <v>-5.015814254378502</v>
+        <v>-1.655037281168695</v>
       </c>
       <c r="C93">
-        <v>7.580770357730161</v>
+        <v>0.7391066961990058</v>
       </c>
       <c r="D93">
-        <v>0.76726047792292</v>
+        <v>3.478458762889068</v>
       </c>
       <c r="E93">
-        <v>2.664641675250663</v>
+        <v>2.720501180135853</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1940,16 +1940,16 @@
         <v>19327.73109243697</v>
       </c>
       <c r="B94">
-        <v>-2.918614746270278</v>
+        <v>-3.6476429859515</v>
       </c>
       <c r="C94">
-        <v>10.35386600737238</v>
+        <v>-1.244227555866032</v>
       </c>
       <c r="D94">
-        <v>1.126717810553433</v>
+        <v>1.302918785666948</v>
       </c>
       <c r="E94">
-        <v>8.631779005786045</v>
+        <v>2.103756792236685</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1957,16 +1957,16 @@
         <v>19537.81512605042</v>
       </c>
       <c r="B95">
-        <v>0.6643731716028523</v>
+        <v>-6.609603862176254</v>
       </c>
       <c r="C95">
-        <v>13.43927866038304</v>
+        <v>-0.1269569332011593</v>
       </c>
       <c r="D95">
-        <v>1.495292639069403</v>
+        <v>-2.393164177720189</v>
       </c>
       <c r="E95">
-        <v>7.121096475765865</v>
+        <v>1.59133416636851</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1974,16 +1974,16 @@
         <v>19747.89915966387</v>
       </c>
       <c r="B96">
-        <v>5.114301533173678</v>
+        <v>-9.74674051287943</v>
       </c>
       <c r="C96">
-        <v>10.52155514581655</v>
+        <v>0.9417768583537128</v>
       </c>
       <c r="D96">
-        <v>1.850494589469887</v>
+        <v>-6.420914784322762</v>
       </c>
       <c r="E96">
-        <v>3.644764681518164</v>
+        <v>1.93838274909077</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1991,16 +1991,16 @@
         <v>19957.98319327731</v>
       </c>
       <c r="B97">
-        <v>5.383056138462161</v>
+        <v>-8.91468730779744</v>
       </c>
       <c r="C97">
-        <v>5.672207941044919</v>
+        <v>0.3664692534887681</v>
       </c>
       <c r="D97">
-        <v>0.7432864887342832</v>
+        <v>-7.066050641325679</v>
       </c>
       <c r="E97">
-        <v>4.778482277073831</v>
+        <v>3.022559769595252</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2008,16 +2008,16 @@
         <v>20168.06722689075</v>
       </c>
       <c r="B98">
-        <v>1.196343423644613</v>
+        <v>-4.646757000820797</v>
       </c>
       <c r="C98">
-        <v>6.262938530306638</v>
+        <v>0.5796639537530883</v>
       </c>
       <c r="D98">
-        <v>-1.828613804025947</v>
+        <v>-4.550837518215127</v>
       </c>
       <c r="E98">
-        <v>5.851563415302365</v>
+        <v>3.827535878266632</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2025,16 +2025,16 @@
         <v>20378.1512605042</v>
       </c>
       <c r="B99">
-        <v>-1.633370465182562</v>
+        <v>-1.799129899197466</v>
       </c>
       <c r="C99">
-        <v>7.488348761689066</v>
+        <v>1.402779679350482</v>
       </c>
       <c r="D99">
-        <v>-3.870967850065716</v>
+        <v>-2.768303043355357</v>
       </c>
       <c r="E99">
-        <v>3.896509811104885</v>
+        <v>3.914125452397784</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2042,16 +2042,16 @@
         <v>20588.23529411765</v>
       </c>
       <c r="B100">
-        <v>-2.08340302975382</v>
+        <v>-2.813035155675388</v>
       </c>
       <c r="C100">
-        <v>5.138671758705216</v>
+        <v>2.061941144820428</v>
       </c>
       <c r="D100">
-        <v>-4.403468791231647</v>
+        <v>-3.260597436488106</v>
       </c>
       <c r="E100">
-        <v>1.188688029663388</v>
+        <v>3.541170164356453</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2059,16 +2059,16 @@
         <v>20798.31932773109</v>
       </c>
       <c r="B101">
-        <v>-3.304699696948016</v>
+        <v>-4.25110567139955</v>
       </c>
       <c r="C101">
-        <v>4.336015075429741</v>
+        <v>1.791497435599624</v>
       </c>
       <c r="D101">
-        <v>-3.628818467074228</v>
+        <v>-3.504962903498886</v>
       </c>
       <c r="E101">
-        <v>1.138902146752373</v>
+        <v>2.900842602184822</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2076,16 +2076,16 @@
         <v>21008.40336134454</v>
       </c>
       <c r="B102">
-        <v>-3.402524772087636</v>
+        <v>-3.890011767226814</v>
       </c>
       <c r="C102">
-        <v>7.975388648770052</v>
+        <v>0.3259052149396142</v>
       </c>
       <c r="D102">
-        <v>-2.094386186954099</v>
+        <v>-1.428397355319775</v>
       </c>
       <c r="E102">
-        <v>4.989137923977415</v>
+        <v>3.021935420014614</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2093,16 +2093,16 @@
         <v>21218.48739495798</v>
       </c>
       <c r="B103">
-        <v>1.415872427929096</v>
+        <v>-13.13764299508746</v>
       </c>
       <c r="C103">
-        <v>8.070157705138801</v>
+        <v>-1.880693249041942</v>
       </c>
       <c r="D103">
-        <v>3.120239939253968</v>
+        <v>-3.168921591083206</v>
       </c>
       <c r="E103">
-        <v>7.959336902865401</v>
+        <v>2.298630539719646</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2110,16 +2110,16 @@
         <v>21428.57142857143</v>
       </c>
       <c r="B104">
-        <v>5.184854646469998</v>
+        <v>-17.53628715935949</v>
       </c>
       <c r="C104">
-        <v>4.962809594541273</v>
+        <v>-4.122794204621822</v>
       </c>
       <c r="D104">
-        <v>5.753101667288107</v>
+        <v>-4.271769444975227</v>
       </c>
       <c r="E104">
-        <v>9.058662155094616</v>
+        <v>1.182603148610751</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2127,16 +2127,16 @@
         <v>21638.65546218487</v>
       </c>
       <c r="B105">
-        <v>10.28849909096366</v>
+        <v>-7.698428734817069</v>
       </c>
       <c r="C105">
-        <v>2.231053730274366</v>
+        <v>-4.955548292333376</v>
       </c>
       <c r="D105">
-        <v>3.217780997754919</v>
+        <v>-1.917730668956383</v>
       </c>
       <c r="E105">
-        <v>10.22628990249011</v>
+        <v>0.7341864905131241</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2144,16 +2144,16 @@
         <v>21848.73949579832</v>
       </c>
       <c r="B106">
-        <v>9.611713945376268</v>
+        <v>-2.690184586846766</v>
       </c>
       <c r="C106">
-        <v>-1.973891914125921</v>
+        <v>-3.980953993699164</v>
       </c>
       <c r="D106">
-        <v>-0.02675736752934288</v>
+        <v>-2.513198959183408</v>
       </c>
       <c r="E106">
-        <v>7.103557541755321</v>
+        <v>-0.9654856058427517</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2161,16 +2161,16 @@
         <v>22058.82352941176</v>
       </c>
       <c r="B107">
-        <v>5.735305237479039</v>
+        <v>-1.751611992105648</v>
       </c>
       <c r="C107">
-        <v>-1.468281152987087</v>
+        <v>-2.550884210884324</v>
       </c>
       <c r="D107">
-        <v>-1.805478924864254</v>
+        <v>-4.008193684502078</v>
       </c>
       <c r="E107">
-        <v>3.945964316950302</v>
+        <v>-0.5357860452290002</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2178,16 +2178,16 @@
         <v>22268.90756302521</v>
       </c>
       <c r="B108">
-        <v>-0.386361732050394</v>
+        <v>-6.426162514582105</v>
       </c>
       <c r="C108">
-        <v>2.687338478517725</v>
+        <v>-3.749467404868705</v>
       </c>
       <c r="D108">
-        <v>-4.92910144319398</v>
+        <v>-10.03363587489358</v>
       </c>
       <c r="E108">
-        <v>6.527707333864076</v>
+        <v>1.639113903701871</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2195,16 +2195,16 @@
         <v>22478.99159663865</v>
       </c>
       <c r="B109">
-        <v>-1.839025078452334</v>
+        <v>-5.192395683744733</v>
       </c>
       <c r="C109">
-        <v>2.652104741784937</v>
+        <v>-2.251977751986323</v>
       </c>
       <c r="D109">
-        <v>-5.392709821244701</v>
+        <v>-8.804249838591655</v>
       </c>
       <c r="E109">
-        <v>4.101076204429067</v>
+        <v>2.379686230289359</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2212,16 +2212,16 @@
         <v>22689.0756302521</v>
       </c>
       <c r="B110">
-        <v>1.813768749696398</v>
+        <v>-3.976978619024804</v>
       </c>
       <c r="C110">
-        <v>1.790332227992107</v>
+        <v>1.974387209705931</v>
       </c>
       <c r="D110">
-        <v>-4.091327529095254</v>
+        <v>-7.68409776095209</v>
       </c>
       <c r="E110">
-        <v>-2.613382876648343</v>
+        <v>2.038607254772345</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2229,16 +2229,16 @@
         <v>22899.15966386555</v>
       </c>
       <c r="B111">
-        <v>-1.106145370336745</v>
+        <v>-6.315048766589951</v>
       </c>
       <c r="C111">
-        <v>-1.264795151640981</v>
+        <v>4.35636508548839</v>
       </c>
       <c r="D111">
-        <v>-4.696813240777248</v>
+        <v>-9.291449243032783</v>
       </c>
       <c r="E111">
-        <v>-7.535058137011648</v>
+        <v>1.481817094951557</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2246,16 +2246,16 @@
         <v>23109.24369747899</v>
       </c>
       <c r="B112">
-        <v>-6.367090152336535</v>
+        <v>-9.094047700687995</v>
       </c>
       <c r="C112">
-        <v>-4.053237793694219</v>
+        <v>3.217745296873627</v>
       </c>
       <c r="D112">
-        <v>-4.867982117725383</v>
+        <v>-9.1500228549568</v>
       </c>
       <c r="E112">
-        <v>-7.26178563790709</v>
+        <v>0.9976678594968533</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2263,16 +2263,16 @@
         <v>23319.32773109243</v>
       </c>
       <c r="B113">
-        <v>-9.643074773786882</v>
+        <v>-10.41569470345096</v>
       </c>
       <c r="C113">
-        <v>-4.653852663237188</v>
+        <v>1.558624834382275</v>
       </c>
       <c r="D113">
-        <v>-3.829975156194737</v>
+        <v>-7.631553019049306</v>
       </c>
       <c r="E113">
-        <v>-4.436922202813315</v>
+        <v>0.1107198267857024</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2280,16 +2280,16 @@
         <v>23529.41176470588</v>
       </c>
       <c r="B114">
-        <v>-8.074111279922855</v>
+        <v>-9.698444423891839</v>
       </c>
       <c r="C114">
-        <v>-2.712018833431365</v>
+        <v>-0.7648771141252553</v>
       </c>
       <c r="D114">
-        <v>-0.4759351588468883</v>
+        <v>-3.748871526728723</v>
       </c>
       <c r="E114">
-        <v>-0.08260924401686198</v>
+        <v>-1.347110181998929</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2297,16 +2297,16 @@
         <v>23739.49579831933</v>
       </c>
       <c r="B115">
-        <v>-9.045100489598857</v>
+        <v>-10.83389640486512</v>
       </c>
       <c r="C115">
-        <v>-0.7891994609499028</v>
+        <v>-1.283192646750112</v>
       </c>
       <c r="D115">
-        <v>0.7508789375221117</v>
+        <v>-3.186125426402887</v>
       </c>
       <c r="E115">
-        <v>4.657210994190871</v>
+        <v>-1.234394621614732</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2314,16 +2314,16 @@
         <v>23949.57983193277</v>
       </c>
       <c r="B116">
-        <v>-6.869566823503127</v>
+        <v>-11.79882134264073</v>
       </c>
       <c r="C116">
-        <v>-0.6748501169157051</v>
+        <v>-1.612852831751931</v>
       </c>
       <c r="D116">
-        <v>0.1737173396228116</v>
+        <v>-5.311621301411502</v>
       </c>
       <c r="E116">
-        <v>6.530217910239281</v>
+        <v>-1.286493078258925</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2331,16 +2331,16 @@
         <v>24159.66386554622</v>
       </c>
       <c r="B117">
-        <v>-3.193907539471059</v>
+        <v>-8.396224734067541</v>
       </c>
       <c r="C117">
-        <v>-2.263916592941803</v>
+        <v>-3.047164259991038</v>
       </c>
       <c r="D117">
-        <v>-2.327715492157572</v>
+        <v>-4.678017157730963</v>
       </c>
       <c r="E117">
-        <v>5.748724209086075</v>
+        <v>-1.711694420148772</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2348,16 +2348,16 @@
         <v>24369.74789915966</v>
       </c>
       <c r="B118">
-        <v>-3.982840350486659</v>
+        <v>-7.399031015783804</v>
       </c>
       <c r="C118">
-        <v>-0.5916902037596263</v>
+        <v>-6.499622929382399</v>
       </c>
       <c r="D118">
-        <v>-2.065371516900086</v>
+        <v>-3.054713208998607</v>
       </c>
       <c r="E118">
-        <v>8.235024722409735</v>
+        <v>-1.346770041444734</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2365,16 +2365,16 @@
         <v>24579.83193277311</v>
       </c>
       <c r="B119">
-        <v>-4.943928731342513</v>
+        <v>-8.700801932906639</v>
       </c>
       <c r="C119">
-        <v>1.187451462263136</v>
+        <v>-7.99165945199887</v>
       </c>
       <c r="D119">
-        <v>-1.948667273087841</v>
+        <v>-3.306319561228569</v>
       </c>
       <c r="E119">
-        <v>8.609488863585767</v>
+        <v>-1.356853500708343</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2382,16 +2382,16 @@
         <v>24789.91596638655</v>
       </c>
       <c r="B120">
-        <v>-7.733552849055941</v>
+        <v>-9.396019170690316</v>
       </c>
       <c r="C120">
-        <v>1.884828829493133</v>
+        <v>-7.980920924925901</v>
       </c>
       <c r="D120">
-        <v>-2.655797127658683</v>
+        <v>-3.762262873410419</v>
       </c>
       <c r="E120">
-        <v>8.406417133595779</v>
+        <v>-2.064340897878816</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2399,16 +2399,16 @@
         <v>25000</v>
       </c>
       <c r="B121">
-        <v>-2.913744496414622</v>
+        <v>-10.64420074220873</v>
       </c>
       <c r="C121">
-        <v>1.929835139167623</v>
+        <v>-4.018624847109526</v>
       </c>
       <c r="D121">
-        <v>-1.208938623310681</v>
+        <v>-4.877775446182689</v>
       </c>
       <c r="E121">
-        <v>4.906639317855801</v>
+        <v>-1.957532198356193</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_wind.xlsx
+++ b/Outputs/MonteCarlo_sim_wind.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
-    <t>x</t>
+    <t>m</t>
   </si>
   <si>
-    <t>y</t>
+    <t>x (m/s)</t>
+  </si>
+  <si>
+    <t>y (m/s)</t>
   </si>
 </sst>
 </file>
@@ -358,17 +361,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -376,16 +382,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7858970568112793</v>
+        <v>-1.306590578910257</v>
       </c>
       <c r="C2">
-        <v>4.733656630364521</v>
+        <v>5.764436417344995</v>
       </c>
       <c r="D2">
-        <v>1.069102445516512</v>
+        <v>-0.0220704900446077</v>
       </c>
       <c r="E2">
-        <v>4.620471406486264</v>
+        <v>1.935056136323546</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -393,16 +399,16 @@
         <v>210.0840336134454</v>
       </c>
       <c r="B3">
-        <v>0.7858974867267219</v>
+        <v>-1.306589836878008</v>
       </c>
       <c r="C3">
-        <v>4.733656320800666</v>
+        <v>5.764436155437701</v>
       </c>
       <c r="D3">
-        <v>1.069101479603872</v>
+        <v>-0.02206958708888096</v>
       </c>
       <c r="E3">
-        <v>4.620471327840743</v>
+        <v>1.935055998019657</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -410,16 +416,16 @@
         <v>420.1680672268907</v>
       </c>
       <c r="B4">
-        <v>0.7858972852291544</v>
+        <v>-1.306591310190706</v>
       </c>
       <c r="C4">
-        <v>4.733656277273825</v>
+        <v>5.764435983830746</v>
       </c>
       <c r="D4">
-        <v>1.069102568378235</v>
+        <v>-0.02207067173700428</v>
       </c>
       <c r="E4">
-        <v>4.620471832606275</v>
+        <v>1.935055784146118</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -427,16 +433,16 @@
         <v>630.2521008403361</v>
       </c>
       <c r="B5">
-        <v>0.7858975026920731</v>
+        <v>-1.306590452777964</v>
       </c>
       <c r="C5">
-        <v>4.733656791356823</v>
+        <v>5.764436700604781</v>
       </c>
       <c r="D5">
-        <v>1.069103216073158</v>
+        <v>-0.02207168015506195</v>
       </c>
       <c r="E5">
-        <v>4.620471237650374</v>
+        <v>1.935055906913254</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -444,16 +450,16 @@
         <v>840.3361344537815</v>
       </c>
       <c r="B6">
-        <v>2.654785539844829</v>
+        <v>1.276977618494312</v>
       </c>
       <c r="C6">
-        <v>6.104890830199777</v>
+        <v>8.53078897851637</v>
       </c>
       <c r="D6">
-        <v>5.882835664230978</v>
+        <v>3.332910344348261</v>
       </c>
       <c r="E6">
-        <v>6.43241534658954</v>
+        <v>3.057411931645787</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -461,16 +467,16 @@
         <v>1050.420168067227</v>
       </c>
       <c r="B7">
-        <v>3.070909537117828</v>
+        <v>4.957990167476105</v>
       </c>
       <c r="C7">
-        <v>3.307403881602661</v>
+        <v>6.871633781301094</v>
       </c>
       <c r="D7">
-        <v>4.31353324343023</v>
+        <v>4.664480021345688</v>
       </c>
       <c r="E7">
-        <v>4.65423565888795</v>
+        <v>-0.01895340746920926</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -478,16 +484,16 @@
         <v>1260.504201680672</v>
       </c>
       <c r="B8">
-        <v>7.277710353792036</v>
+        <v>5.089210367614807</v>
       </c>
       <c r="C8">
-        <v>2.948353023665134</v>
+        <v>6.13049854734186</v>
       </c>
       <c r="D8">
-        <v>5.126658448317128</v>
+        <v>3.587422192721215</v>
       </c>
       <c r="E8">
-        <v>3.225704474976497</v>
+        <v>-2.140820482725488</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -495,16 +501,16 @@
         <v>1470.588235294118</v>
       </c>
       <c r="B9">
-        <v>4.462980426789992</v>
+        <v>4.701180611065442</v>
       </c>
       <c r="C9">
-        <v>5.239516654778996</v>
+        <v>7.621570489574008</v>
       </c>
       <c r="D9">
-        <v>5.565718445127053</v>
+        <v>2.777332486457325</v>
       </c>
       <c r="E9">
-        <v>3.349968194044203</v>
+        <v>-6.287425233216235</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -512,16 +518,16 @@
         <v>1680.672268907563</v>
       </c>
       <c r="B10">
-        <v>1.810523496190266</v>
+        <v>3.721418169729581</v>
       </c>
       <c r="C10">
-        <v>6.409398524063766</v>
+        <v>8.339378627445695</v>
       </c>
       <c r="D10">
-        <v>4.164258140892512</v>
+        <v>2.072940467750612</v>
       </c>
       <c r="E10">
-        <v>4.002529696885532</v>
+        <v>-6.790366590785617</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -529,16 +535,16 @@
         <v>1890.756302521008</v>
       </c>
       <c r="B11">
-        <v>-0.2328549935440156</v>
+        <v>2.639687657351907</v>
       </c>
       <c r="C11">
-        <v>6.64632878982974</v>
+        <v>9.140203784901443</v>
       </c>
       <c r="D11">
-        <v>3.657459439358443</v>
+        <v>1.215003383265563</v>
       </c>
       <c r="E11">
-        <v>5.280456028415416</v>
+        <v>-3.101305919775478</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -546,16 +552,16 @@
         <v>2100.840336134454</v>
       </c>
       <c r="B12">
-        <v>-0.7356478566349782</v>
+        <v>1.210033514157614</v>
       </c>
       <c r="C12">
-        <v>8.805603319268153</v>
+        <v>11.12929182584275</v>
       </c>
       <c r="D12">
-        <v>3.962348667066878</v>
+        <v>0.1662528063491377</v>
       </c>
       <c r="E12">
-        <v>6.178591038910652</v>
+        <v>-3.861535619282384</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -563,16 +569,16 @@
         <v>2310.924369747899</v>
       </c>
       <c r="B13">
-        <v>0.8570075003394938</v>
+        <v>0.1247860788509267</v>
       </c>
       <c r="C13">
-        <v>8.440533739794148</v>
+        <v>10.36065297687352</v>
       </c>
       <c r="D13">
-        <v>4.129814078653442</v>
+        <v>-0.5946945658915335</v>
       </c>
       <c r="E13">
-        <v>6.066274480356047</v>
+        <v>-2.460165886701193</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -580,16 +586,16 @@
         <v>2521.008403361344</v>
       </c>
       <c r="B14">
-        <v>1.605208903625073</v>
+        <v>-0.1319497779137382</v>
       </c>
       <c r="C14">
-        <v>8.297099222621467</v>
+        <v>9.945775602529</v>
       </c>
       <c r="D14">
-        <v>3.799866365913418</v>
+        <v>-0.8300007846015189</v>
       </c>
       <c r="E14">
-        <v>5.935895255217971</v>
+        <v>-3.715097498139927</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -597,16 +603,16 @@
         <v>2731.09243697479</v>
       </c>
       <c r="B15">
-        <v>0.1022431432746023</v>
+        <v>0.2053476654848547</v>
       </c>
       <c r="C15">
-        <v>8.941390253209288</v>
+        <v>10.81085734995125</v>
       </c>
       <c r="D15">
-        <v>3.059622966184231</v>
+        <v>-0.8411501989534775</v>
       </c>
       <c r="E15">
-        <v>6.4099832989535</v>
+        <v>-5.012581617613995</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -614,16 +620,16 @@
         <v>2941.176470588235</v>
       </c>
       <c r="B16">
-        <v>0.2732199418866641</v>
+        <v>-0.8360877062448498</v>
       </c>
       <c r="C16">
-        <v>10.07445142596559</v>
+        <v>11.31078465370708</v>
       </c>
       <c r="D16">
-        <v>3.706564576398476</v>
+        <v>-0.8988456581347065</v>
       </c>
       <c r="E16">
-        <v>6.196805668682439</v>
+        <v>-6.0814115544342</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -631,16 +637,16 @@
         <v>3151.260504201681</v>
       </c>
       <c r="B17">
-        <v>0.547074149293743</v>
+        <v>-1.496700674976268</v>
       </c>
       <c r="C17">
-        <v>10.03013962569812</v>
+        <v>10.92084847750115</v>
       </c>
       <c r="D17">
-        <v>4.313732140265455</v>
+        <v>-1.196586528414408</v>
       </c>
       <c r="E17">
-        <v>5.906456979928252</v>
+        <v>-5.765176609688965</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -648,16 +654,16 @@
         <v>3361.344537815126</v>
       </c>
       <c r="B18">
-        <v>1.18847331985505</v>
+        <v>-1.299090470326273</v>
       </c>
       <c r="C18">
-        <v>9.089411830792635</v>
+        <v>10.09484016540079</v>
       </c>
       <c r="D18">
-        <v>3.257242520744115</v>
+        <v>-1.008136441940186</v>
       </c>
       <c r="E18">
-        <v>6.317673918977382</v>
+        <v>-4.144981574368555</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -665,16 +671,16 @@
         <v>3571.428571428571</v>
       </c>
       <c r="B19">
-        <v>2.786987513988734</v>
+        <v>-1.725133456269089</v>
       </c>
       <c r="C19">
-        <v>8.247289389004273</v>
+        <v>9.069132307659565</v>
       </c>
       <c r="D19">
-        <v>3.846755249910023</v>
+        <v>-0.5446315469719427</v>
       </c>
       <c r="E19">
-        <v>5.656635197289151</v>
+        <v>-4.234092977786731</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -682,16 +688,16 @@
         <v>3781.512605042017</v>
       </c>
       <c r="B20">
-        <v>5.075378501795312</v>
+        <v>-2.223381259501934</v>
       </c>
       <c r="C20">
-        <v>9.845947924507534</v>
+        <v>9.364408401435348</v>
       </c>
       <c r="D20">
-        <v>5.405148892170937</v>
+        <v>0.5291724573545622</v>
       </c>
       <c r="E20">
-        <v>5.653137868777283</v>
+        <v>-4.065913612314239</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -699,16 +705,16 @@
         <v>3991.596638655462</v>
       </c>
       <c r="B21">
-        <v>7.054527408827518</v>
+        <v>-1.507368003222828</v>
       </c>
       <c r="C21">
-        <v>10.71023452423087</v>
+        <v>9.903886821163486</v>
       </c>
       <c r="D21">
-        <v>6.773872504298067</v>
+        <v>2.37736145505592</v>
       </c>
       <c r="E21">
-        <v>5.977333891811632</v>
+        <v>-3.432174010168622</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -716,16 +722,16 @@
         <v>4201.680672268907</v>
       </c>
       <c r="B22">
-        <v>9.781827869602727</v>
+        <v>0.320848740076896</v>
       </c>
       <c r="C22">
-        <v>11.28791031066766</v>
+        <v>10.17069551925622</v>
       </c>
       <c r="D22">
-        <v>6.78516727627014</v>
+        <v>4.27009537732585</v>
       </c>
       <c r="E22">
-        <v>6.193861871111998</v>
+        <v>-2.087066440417117</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -733,16 +739,16 @@
         <v>4411.764705882353</v>
       </c>
       <c r="B23">
-        <v>10.9164656884661</v>
+        <v>1.939147548650777</v>
       </c>
       <c r="C23">
-        <v>10.82372235797015</v>
+        <v>9.29654073126882</v>
       </c>
       <c r="D23">
-        <v>6.74300642806258</v>
+        <v>5.448531687506782</v>
       </c>
       <c r="E23">
-        <v>5.780995206681239</v>
+        <v>-1.423989857916601</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -750,16 +756,16 @@
         <v>4621.848739495798</v>
       </c>
       <c r="B24">
-        <v>10.97976544273303</v>
+        <v>0.6826829232353528</v>
       </c>
       <c r="C24">
-        <v>9.644336921831073</v>
+        <v>7.983431061345472</v>
       </c>
       <c r="D24">
-        <v>7.749562922613189</v>
+        <v>4.76126210113138</v>
       </c>
       <c r="E24">
-        <v>4.957092515927938</v>
+        <v>-1.866506605839525</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -767,16 +773,16 @@
         <v>4831.932773109243</v>
       </c>
       <c r="B25">
-        <v>13.1698000042952</v>
+        <v>-0.5238030162266174</v>
       </c>
       <c r="C25">
-        <v>9.432286056810186</v>
+        <v>7.343985619219561</v>
       </c>
       <c r="D25">
-        <v>8.419233833868434</v>
+        <v>4.418052668654392</v>
       </c>
       <c r="E25">
-        <v>4.335351235512446</v>
+        <v>-2.241597091550552</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -784,16 +790,16 @@
         <v>5042.016806722689</v>
       </c>
       <c r="B26">
-        <v>12.76401452485614</v>
+        <v>-1.146536918189525</v>
       </c>
       <c r="C26">
-        <v>9.371629735812022</v>
+        <v>6.468992822489629</v>
       </c>
       <c r="D26">
-        <v>10.09603838924864</v>
+        <v>5.00843257849165</v>
       </c>
       <c r="E26">
-        <v>3.673145424594281</v>
+        <v>-2.913805039438303</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -801,16 +807,16 @@
         <v>5252.100840336134</v>
       </c>
       <c r="B27">
-        <v>12.77482865055874</v>
+        <v>-1.212897866097311</v>
       </c>
       <c r="C27">
-        <v>9.46639156605497</v>
+        <v>5.763696995363217</v>
       </c>
       <c r="D27">
-        <v>10.41211042021416</v>
+        <v>5.905552739002055</v>
       </c>
       <c r="E27">
-        <v>3.283544131876328</v>
+        <v>-3.464112606787592</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -818,16 +824,16 @@
         <v>5462.18487394958</v>
       </c>
       <c r="B28">
-        <v>13.06668287053787</v>
+        <v>-0.6722131523075268</v>
       </c>
       <c r="C28">
-        <v>10.23531357964291</v>
+        <v>5.876977049997249</v>
       </c>
       <c r="D28">
-        <v>9.138597913064579</v>
+        <v>6.813280082071822</v>
       </c>
       <c r="E28">
-        <v>4.604216428427002</v>
+        <v>-1.28728284030531</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -835,16 +841,16 @@
         <v>5672.268907563025</v>
       </c>
       <c r="B29">
-        <v>11.81549750006803</v>
+        <v>0.7014097861146462</v>
       </c>
       <c r="C29">
-        <v>11.00059813693374</v>
+        <v>6.423013109256176</v>
       </c>
       <c r="D29">
-        <v>8.148094123785</v>
+        <v>7.486218137794955</v>
       </c>
       <c r="E29">
-        <v>5.488586421570493</v>
+        <v>0.3288517561273085</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -852,16 +858,16 @@
         <v>5882.35294117647</v>
       </c>
       <c r="B30">
-        <v>11.21178085800179</v>
+        <v>2.606512887478225</v>
       </c>
       <c r="C30">
-        <v>11.50467563665863</v>
+        <v>7.046251824103845</v>
       </c>
       <c r="D30">
-        <v>7.563152508658869</v>
+        <v>8.449283038119116</v>
       </c>
       <c r="E30">
-        <v>5.931375716989277</v>
+        <v>0.7125850746491453</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -869,16 +875,16 @@
         <v>6092.436974789915</v>
       </c>
       <c r="B31">
-        <v>12.97892388258746</v>
+        <v>3.566437286527268</v>
       </c>
       <c r="C31">
-        <v>9.844796976886638</v>
+        <v>7.97562759900115</v>
       </c>
       <c r="D31">
-        <v>7.294427730983684</v>
+        <v>9.379745785779438</v>
       </c>
       <c r="E31">
-        <v>5.69752345129116</v>
+        <v>-1.353603342039028</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -886,16 +892,16 @@
         <v>6302.521008403362</v>
       </c>
       <c r="B32">
-        <v>11.60250723554166</v>
+        <v>3.901843036042958</v>
       </c>
       <c r="C32">
-        <v>10.86812686503596</v>
+        <v>9.667896076638723</v>
       </c>
       <c r="D32">
-        <v>7.291231839538902</v>
+        <v>10.4743372836273</v>
       </c>
       <c r="E32">
-        <v>5.646955995080265</v>
+        <v>-3.749137142146408</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -903,16 +909,16 @@
         <v>6512.605042016807</v>
       </c>
       <c r="B33">
-        <v>11.55164993918111</v>
+        <v>4.306314182486213</v>
       </c>
       <c r="C33">
-        <v>10.84299715382477</v>
+        <v>9.954000664375553</v>
       </c>
       <c r="D33">
-        <v>7.587778052859177</v>
+        <v>11.30165595970524</v>
       </c>
       <c r="E33">
-        <v>5.462282117265585</v>
+        <v>-4.407752471729768</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -920,16 +926,16 @@
         <v>6722.689075630252</v>
       </c>
       <c r="B34">
-        <v>13.34378027708365</v>
+        <v>4.674454769036205</v>
       </c>
       <c r="C34">
-        <v>10.01314450452798</v>
+        <v>9.12926004901149</v>
       </c>
       <c r="D34">
-        <v>7.647184332213851</v>
+        <v>11.76157981629731</v>
       </c>
       <c r="E34">
-        <v>5.319135585287379</v>
+        <v>-2.809389815192461</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -937,16 +943,16 @@
         <v>6932.773109243697</v>
       </c>
       <c r="B35">
-        <v>13.930648973574</v>
+        <v>4.739839771130295</v>
       </c>
       <c r="C35">
-        <v>9.36046167453198</v>
+        <v>7.942705911956032</v>
       </c>
       <c r="D35">
-        <v>8.58582607554739</v>
+        <v>12.14950036100175</v>
       </c>
       <c r="E35">
-        <v>5.131892275791968</v>
+        <v>0.3380832383047059</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -954,16 +960,16 @@
         <v>7142.857142857142</v>
       </c>
       <c r="B36">
-        <v>15.36315911389596</v>
+        <v>5.359667028554076</v>
       </c>
       <c r="C36">
-        <v>8.060609144016171</v>
+        <v>6.535472029640849</v>
       </c>
       <c r="D36">
-        <v>9.016744553334332</v>
+        <v>12.70514742087206</v>
       </c>
       <c r="E36">
-        <v>4.591441475966459</v>
+        <v>2.285836528265253</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -971,16 +977,16 @@
         <v>7352.941176470588</v>
       </c>
       <c r="B37">
-        <v>16.83831041899321</v>
+        <v>5.489263038767365</v>
       </c>
       <c r="C37">
-        <v>7.980524520741814</v>
+        <v>5.743780260444924</v>
       </c>
       <c r="D37">
-        <v>9.541727515428811</v>
+        <v>12.92327561295724</v>
       </c>
       <c r="E37">
-        <v>3.625385701957409</v>
+        <v>3.034476970376998</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -988,16 +994,16 @@
         <v>7563.025210084033</v>
       </c>
       <c r="B38">
-        <v>16.74943931130636</v>
+        <v>3.966715059189558</v>
       </c>
       <c r="C38">
-        <v>7.328967393986781</v>
+        <v>4.585337232726356</v>
       </c>
       <c r="D38">
-        <v>11.17924384154639</v>
+        <v>12.42956823924537</v>
       </c>
       <c r="E38">
-        <v>2.44821272356594</v>
+        <v>1.10551424803542</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1005,16 +1011,16 @@
         <v>7773.109243697479</v>
       </c>
       <c r="B39">
-        <v>15.49271383673586</v>
+        <v>4.176581155344817</v>
       </c>
       <c r="C39">
-        <v>6.782012464687137</v>
+        <v>4.560351375558607</v>
       </c>
       <c r="D39">
-        <v>11.34081239909307</v>
+        <v>12.70141374557222</v>
       </c>
       <c r="E39">
-        <v>2.652120414723973</v>
+        <v>0.7073175909351761</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1022,16 +1028,16 @@
         <v>7983.193277310924</v>
       </c>
       <c r="B40">
-        <v>13.05699452153689</v>
+        <v>3.8647108392168</v>
       </c>
       <c r="C40">
-        <v>6.250950880893559</v>
+        <v>4.806578708660314</v>
       </c>
       <c r="D40">
-        <v>12.42800868495898</v>
+        <v>12.78443841348047</v>
       </c>
       <c r="E40">
-        <v>3.041112917675808</v>
+        <v>1.064480351628975</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1039,16 +1045,16 @@
         <v>8193.27731092437</v>
       </c>
       <c r="B41">
-        <v>13.90277694743666</v>
+        <v>3.549496913352757</v>
       </c>
       <c r="C41">
-        <v>6.160734711272331</v>
+        <v>5.164113336459648</v>
       </c>
       <c r="D41">
-        <v>12.01288941316127</v>
+        <v>12.53159093145892</v>
       </c>
       <c r="E41">
-        <v>3.455054567049914</v>
+        <v>2.039603257899771</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1056,16 +1062,16 @@
         <v>8403.361344537814</v>
       </c>
       <c r="B42">
-        <v>14.86547282479389</v>
+        <v>4.124920521397059</v>
       </c>
       <c r="C42">
-        <v>6.658760075123528</v>
+        <v>5.580223876456348</v>
       </c>
       <c r="D42">
-        <v>11.56262307507964</v>
+        <v>12.84234440852081</v>
       </c>
       <c r="E42">
-        <v>4.025054101911859</v>
+        <v>3.108825524473158</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1073,16 +1079,16 @@
         <v>8613.44537815126</v>
       </c>
       <c r="B43">
-        <v>16.12597966865469</v>
+        <v>5.392762998214589</v>
       </c>
       <c r="C43">
-        <v>7.511269616912076</v>
+        <v>6.112618279468097</v>
       </c>
       <c r="D43">
-        <v>10.84367703301909</v>
+        <v>13.65636380603997</v>
       </c>
       <c r="E43">
-        <v>4.343345462103152</v>
+        <v>3.5466465112881</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1090,16 +1096,16 @@
         <v>8823.529411764706</v>
       </c>
       <c r="B44">
-        <v>17.12105597269831</v>
+        <v>6.745173699364774</v>
       </c>
       <c r="C44">
-        <v>8.277288551945956</v>
+        <v>6.634391767330854</v>
       </c>
       <c r="D44">
-        <v>10.31622981589577</v>
+        <v>14.49045732156078</v>
       </c>
       <c r="E44">
-        <v>4.409334404384698</v>
+        <v>3.481887000725072</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1107,16 +1113,16 @@
         <v>9033.613445378151</v>
       </c>
       <c r="B45">
-        <v>18.12784346025354</v>
+        <v>7.841375143195833</v>
       </c>
       <c r="C45">
-        <v>8.798133028688941</v>
+        <v>7.016527149477459</v>
       </c>
       <c r="D45">
-        <v>9.847413946840534</v>
+        <v>15.10335077146355</v>
       </c>
       <c r="E45">
-        <v>4.342255031707409</v>
+        <v>3.217843655287842</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1124,16 +1130,16 @@
         <v>9243.697478991597</v>
       </c>
       <c r="B46">
-        <v>19.52490598974886</v>
+        <v>8.351756885124846</v>
       </c>
       <c r="C46">
-        <v>9.449453482949156</v>
+        <v>7.400683495612629</v>
       </c>
       <c r="D46">
-        <v>9.263808082850446</v>
+        <v>15.27766281048257</v>
       </c>
       <c r="E46">
-        <v>4.631793277980874</v>
+        <v>4.216948126254261</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1141,16 +1147,16 @@
         <v>9453.781512605041</v>
       </c>
       <c r="B47">
-        <v>21.64262547533156</v>
+        <v>7.793187772607885</v>
       </c>
       <c r="C47">
-        <v>10.92474007940162</v>
+        <v>8.655904223502292</v>
       </c>
       <c r="D47">
-        <v>9.060475586587629</v>
+        <v>14.69003157726056</v>
       </c>
       <c r="E47">
-        <v>5.685888185931084</v>
+        <v>6.594719072609559</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1158,16 +1164,16 @@
         <v>9663.865546218487</v>
       </c>
       <c r="B48">
-        <v>20.9378166761851</v>
+        <v>9.818413350674227</v>
       </c>
       <c r="C48">
-        <v>10.00991095298562</v>
+        <v>6.825716603316969</v>
       </c>
       <c r="D48">
-        <v>7.089339389359797</v>
+        <v>16.108675381731</v>
       </c>
       <c r="E48">
-        <v>4.936667554970148</v>
+        <v>7.492291002047466</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1175,16 +1181,16 @@
         <v>9873.949579831933</v>
       </c>
       <c r="B49">
-        <v>21.42797762094687</v>
+        <v>10.24667770561087</v>
       </c>
       <c r="C49">
-        <v>10.28380714907045</v>
+        <v>7.321803163206441</v>
       </c>
       <c r="D49">
-        <v>7.104351571457569</v>
+        <v>16.56125582387353</v>
       </c>
       <c r="E49">
-        <v>4.618543169009508</v>
+        <v>6.073662820996086</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1192,16 +1198,16 @@
         <v>10084.03361344538</v>
       </c>
       <c r="B50">
-        <v>20.21894511376481</v>
+        <v>10.06425868606691</v>
       </c>
       <c r="C50">
-        <v>10.60730056342531</v>
+        <v>8.220970845326107</v>
       </c>
       <c r="D50">
-        <v>8.794729238971161</v>
+        <v>16.91924749384829</v>
       </c>
       <c r="E50">
-        <v>4.698423253602241</v>
+        <v>4.045799998595199</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1209,16 +1215,16 @@
         <v>10294.11764705882</v>
       </c>
       <c r="B51">
-        <v>17.5418167669378</v>
+        <v>10.41336190092146</v>
       </c>
       <c r="C51">
-        <v>10.53609282271641</v>
+        <v>8.3119215745846</v>
       </c>
       <c r="D51">
-        <v>10.40871564584536</v>
+        <v>17.72901328667265</v>
       </c>
       <c r="E51">
-        <v>5.05279222735373</v>
+        <v>3.204151217687024</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1226,16 +1232,16 @@
         <v>10504.20168067227</v>
       </c>
       <c r="B52">
-        <v>16.18408847414974</v>
+        <v>11.15684768830531</v>
       </c>
       <c r="C52">
-        <v>10.49824396298935</v>
+        <v>8.090727489101578</v>
       </c>
       <c r="D52">
-        <v>10.81165998231077</v>
+        <v>18.58337175117337</v>
       </c>
       <c r="E52">
-        <v>5.406622981489512</v>
+        <v>3.397403336719147</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1243,16 +1249,16 @@
         <v>10714.28571428571</v>
       </c>
       <c r="B53">
-        <v>17.2744973761987</v>
+        <v>11.93668282138921</v>
       </c>
       <c r="C53">
-        <v>10.4656061059366</v>
+        <v>7.923566298251512</v>
       </c>
       <c r="D53">
-        <v>10.01839265450718</v>
+        <v>19.13278324344174</v>
       </c>
       <c r="E53">
-        <v>5.610512087967072</v>
+        <v>3.743527805821928</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1260,16 +1266,16 @@
         <v>10924.36974789916</v>
       </c>
       <c r="B54">
-        <v>18.92300484213189</v>
+        <v>12.51525666698641</v>
       </c>
       <c r="C54">
-        <v>10.10992233481925</v>
+        <v>7.826350558463615</v>
       </c>
       <c r="D54">
-        <v>9.372157609504184</v>
+        <v>19.51670150876377</v>
       </c>
       <c r="E54">
-        <v>5.639067586484239</v>
+        <v>3.556388832865759</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1277,16 +1283,16 @@
         <v>11134.4537815126</v>
       </c>
       <c r="B55">
-        <v>20.41795351821191</v>
+        <v>13.11587664933697</v>
       </c>
       <c r="C55">
-        <v>9.633691343993355</v>
+        <v>7.557345332274362</v>
       </c>
       <c r="D55">
-        <v>9.100505544937842</v>
+        <v>19.98372929369841</v>
       </c>
       <c r="E55">
-        <v>5.650495101383446</v>
+        <v>3.583965631775921</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1294,16 +1300,16 @@
         <v>11344.53781512605</v>
       </c>
       <c r="B56">
-        <v>21.36229543412863</v>
+        <v>13.75152014010745</v>
       </c>
       <c r="C56">
-        <v>8.89953640239532</v>
+        <v>7.077227748439015</v>
       </c>
       <c r="D56">
-        <v>9.703282959351965</v>
+        <v>20.52235772102807</v>
       </c>
       <c r="E56">
-        <v>5.869476733583038</v>
+        <v>4.038312527123529</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1311,16 +1317,16 @@
         <v>11554.6218487395</v>
       </c>
       <c r="B57">
-        <v>20.00555332670394</v>
+        <v>14.2348261661279</v>
       </c>
       <c r="C57">
-        <v>7.618880316290441</v>
+        <v>6.427031023584988</v>
       </c>
       <c r="D57">
-        <v>12.14675220737424</v>
+        <v>21.39059610442957</v>
       </c>
       <c r="E57">
-        <v>5.933816709797822</v>
+        <v>4.220742979428938</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1328,16 +1334,16 @@
         <v>11764.70588235294</v>
       </c>
       <c r="B58">
-        <v>20.24475488758324</v>
+        <v>15.05474101294806</v>
       </c>
       <c r="C58">
-        <v>6.196563493373627</v>
+        <v>5.405249837129206</v>
       </c>
       <c r="D58">
-        <v>13.08894157984427</v>
+        <v>22.17898071416726</v>
       </c>
       <c r="E58">
-        <v>5.755893163606824</v>
+        <v>4.276759416354969</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1345,16 +1351,16 @@
         <v>11974.78991596639</v>
       </c>
       <c r="B59">
-        <v>20.57692357744037</v>
+        <v>14.91144862358171</v>
       </c>
       <c r="C59">
-        <v>5.722699239627717</v>
+        <v>4.685959835077859</v>
       </c>
       <c r="D59">
-        <v>13.61048517739358</v>
+        <v>22.17963518108254</v>
       </c>
       <c r="E59">
-        <v>5.84799233904057</v>
+        <v>4.591451107955975</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1362,16 +1368,16 @@
         <v>12184.87394957983</v>
       </c>
       <c r="B60">
-        <v>19.80529811586293</v>
+        <v>13.99727792147471</v>
       </c>
       <c r="C60">
-        <v>6.45721940793577</v>
+        <v>4.335901253822805</v>
       </c>
       <c r="D60">
-        <v>13.1764244197521</v>
+        <v>21.79523445053331</v>
       </c>
       <c r="E60">
-        <v>6.060832110956097</v>
+        <v>5.619170035008446</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1379,16 +1385,16 @@
         <v>12394.95798319328</v>
       </c>
       <c r="B61">
-        <v>17.98230847337183</v>
+        <v>13.30543932564997</v>
       </c>
       <c r="C61">
-        <v>5.96168753504626</v>
+        <v>2.982277528285785</v>
       </c>
       <c r="D61">
-        <v>11.49546306994024</v>
+        <v>21.79034739857177</v>
       </c>
       <c r="E61">
-        <v>5.714329330231003</v>
+        <v>6.091444631470512</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1396,16 +1402,16 @@
         <v>12605.04201680672</v>
       </c>
       <c r="B62">
-        <v>19.15633756407479</v>
+        <v>12.0514488113914</v>
       </c>
       <c r="C62">
-        <v>5.590912156353966</v>
+        <v>3.108995994609176</v>
       </c>
       <c r="D62">
-        <v>13.52719609187941</v>
+        <v>20.98477525353002</v>
       </c>
       <c r="E62">
-        <v>6.104292454946047</v>
+        <v>6.57854500384636</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1413,16 +1419,16 @@
         <v>12815.12605042017</v>
       </c>
       <c r="B63">
-        <v>23.1128736647563</v>
+        <v>10.76134090851998</v>
       </c>
       <c r="C63">
-        <v>5.442520129185851</v>
+        <v>4.18908969160517</v>
       </c>
       <c r="D63">
-        <v>17.91089476122329</v>
+        <v>19.95543199078794</v>
       </c>
       <c r="E63">
-        <v>6.108952516015329</v>
+        <v>4.911274634689179</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1430,16 +1436,16 @@
         <v>13025.21008403361</v>
       </c>
       <c r="B64">
-        <v>24.62145522579434</v>
+        <v>10.94011284261384</v>
       </c>
       <c r="C64">
-        <v>5.334112470783412</v>
+        <v>4.427706658738154</v>
       </c>
       <c r="D64">
-        <v>20.75077721435948</v>
+        <v>20.03549718078932</v>
       </c>
       <c r="E64">
-        <v>5.923904610188941</v>
+        <v>4.542599955692376</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1447,16 +1453,16 @@
         <v>13235.29411764706</v>
       </c>
       <c r="B65">
-        <v>22.27112945138721</v>
+        <v>13.16920191237642</v>
       </c>
       <c r="C65">
-        <v>4.572526079584792</v>
+        <v>3.774324526222588</v>
       </c>
       <c r="D65">
-        <v>20.77040827220282</v>
+        <v>21.68363896233515</v>
       </c>
       <c r="E65">
-        <v>5.544468330769885</v>
+        <v>4.961154746076354</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1464,16 +1470,16 @@
         <v>13445.3781512605</v>
       </c>
       <c r="B66">
-        <v>15.22661077713872</v>
+        <v>15.49368985576544</v>
       </c>
       <c r="C66">
-        <v>4.032837327030009</v>
+        <v>4.203953645813457</v>
       </c>
       <c r="D66">
-        <v>16.62291290333104</v>
+        <v>23.72881884768108</v>
       </c>
       <c r="E66">
-        <v>5.417908732083926</v>
+        <v>4.276699330437989</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1481,16 +1487,16 @@
         <v>13655.46218487395</v>
       </c>
       <c r="B67">
-        <v>15.65408844988235</v>
+        <v>13.60280646754442</v>
       </c>
       <c r="C67">
-        <v>2.316125583310453</v>
+        <v>2.162225568392263</v>
       </c>
       <c r="D67">
-        <v>13.28934695672985</v>
+        <v>21.84080656029389</v>
       </c>
       <c r="E67">
-        <v>4.317543762968548</v>
+        <v>5.071637486110397</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1498,16 +1504,16 @@
         <v>13865.54621848739</v>
       </c>
       <c r="B68">
-        <v>16.77825852852921</v>
+        <v>11.86428504209655</v>
       </c>
       <c r="C68">
-        <v>1.576270077098538</v>
+        <v>2.254959600444352</v>
       </c>
       <c r="D68">
-        <v>13.22439764632373</v>
+        <v>19.79674767193716</v>
       </c>
       <c r="E68">
-        <v>3.84526114184913</v>
+        <v>3.6125749625839</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1515,16 +1521,16 @@
         <v>14075.63025210084</v>
       </c>
       <c r="B69">
-        <v>15.77051441448471</v>
+        <v>11.88237670085043</v>
       </c>
       <c r="C69">
-        <v>1.002682452732963</v>
+        <v>2.459288070910845</v>
       </c>
       <c r="D69">
-        <v>14.00396273182065</v>
+        <v>18.92221269616167</v>
       </c>
       <c r="E69">
-        <v>3.374457998449555</v>
+        <v>0.9060106197483799</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1532,16 +1538,16 @@
         <v>14285.71428571428</v>
       </c>
       <c r="B70">
-        <v>14.01205810480752</v>
+        <v>11.90313463788916</v>
       </c>
       <c r="C70">
-        <v>0.5046970664025761</v>
+        <v>1.875301757370957</v>
       </c>
       <c r="D70">
-        <v>13.64264844927016</v>
+        <v>17.80156312194815</v>
       </c>
       <c r="E70">
-        <v>2.838617162647817</v>
+        <v>-1.708820647260448</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1549,16 +1555,16 @@
         <v>14495.79831932773</v>
       </c>
       <c r="B71">
-        <v>14.05682913227646</v>
+        <v>12.4168114666122</v>
       </c>
       <c r="C71">
-        <v>-0.171165087372068</v>
+        <v>0.3838515899120134</v>
       </c>
       <c r="D71">
-        <v>13.67669659894704</v>
+        <v>16.26345199495722</v>
       </c>
       <c r="E71">
-        <v>2.220736785243968</v>
+        <v>-1.480677084051671</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1566,16 +1572,16 @@
         <v>14705.88235294118</v>
       </c>
       <c r="B72">
-        <v>15.18669444230447</v>
+        <v>15.2277727039495</v>
       </c>
       <c r="C72">
-        <v>0.5006430324096263</v>
+        <v>0.4592463194669083</v>
       </c>
       <c r="D72">
-        <v>13.55204817124757</v>
+        <v>15.82266888898367</v>
       </c>
       <c r="E72">
-        <v>2.617342732822944</v>
+        <v>1.267045121595376</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1583,16 +1589,16 @@
         <v>14915.96638655462</v>
       </c>
       <c r="B73">
-        <v>14.04375810693975</v>
+        <v>17.07781548732719</v>
       </c>
       <c r="C73">
-        <v>2.594816242727908</v>
+        <v>2.406950216539312</v>
       </c>
       <c r="D73">
-        <v>10.85789518633608</v>
+        <v>15.41641363322539</v>
       </c>
       <c r="E73">
-        <v>3.99583846677481</v>
+        <v>5.174010190928542</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1600,16 +1606,16 @@
         <v>15126.05042016807</v>
       </c>
       <c r="B74">
-        <v>10.9372165178171</v>
+        <v>16.81588206100417</v>
       </c>
       <c r="C74">
-        <v>1.157691445670363</v>
+        <v>1.942834956097595</v>
       </c>
       <c r="D74">
-        <v>8.037797351042974</v>
+        <v>15.25662052708181</v>
       </c>
       <c r="E74">
-        <v>2.766442877539651</v>
+        <v>3.120649108813368</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1617,16 +1623,16 @@
         <v>15336.13445378151</v>
       </c>
       <c r="B75">
-        <v>10.56484070725515</v>
+        <v>15.23702066978419</v>
       </c>
       <c r="C75">
-        <v>-1.081214997234161</v>
+        <v>1.784117352189642</v>
       </c>
       <c r="D75">
-        <v>6.977068291941335</v>
+        <v>15.57018109414088</v>
       </c>
       <c r="E75">
-        <v>1.267329185928288</v>
+        <v>-1.356664853412235</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1634,16 +1640,16 @@
         <v>15546.21848739496</v>
       </c>
       <c r="B76">
-        <v>10.29439673807476</v>
+        <v>13.72898219100433</v>
       </c>
       <c r="C76">
-        <v>-0.4989692165488639</v>
+        <v>3.921627193297286</v>
       </c>
       <c r="D76">
-        <v>8.474470554673198</v>
+        <v>16.19407064716048</v>
       </c>
       <c r="E76">
-        <v>3.284797227234899</v>
+        <v>-1.022267848833169</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1651,16 +1657,16 @@
         <v>15756.3025210084</v>
       </c>
       <c r="B77">
-        <v>10.70542553893307</v>
+        <v>12.78573367505988</v>
       </c>
       <c r="C77">
-        <v>2.347395205517741</v>
+        <v>4.781699120759971</v>
       </c>
       <c r="D77">
-        <v>11.00184546714104</v>
+        <v>16.66741629020818</v>
       </c>
       <c r="E77">
-        <v>3.663463560836398</v>
+        <v>-3.478231991045714</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1668,16 +1674,16 @@
         <v>15966.38655462185</v>
       </c>
       <c r="B78">
-        <v>7.26383465341482</v>
+        <v>12.49977727288447</v>
       </c>
       <c r="C78">
-        <v>3.290545396831455</v>
+        <v>4.807226270956418</v>
       </c>
       <c r="D78">
-        <v>10.7618804540469</v>
+        <v>15.43778634298159</v>
       </c>
       <c r="E78">
-        <v>3.027226786030239</v>
+        <v>-5.800684844483436</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1685,16 +1691,16 @@
         <v>16176.47058823529</v>
       </c>
       <c r="B79">
-        <v>2.63774744689485</v>
+        <v>10.77450360434545</v>
       </c>
       <c r="C79">
-        <v>0.7403939792099399</v>
+        <v>3.742133127195151</v>
       </c>
       <c r="D79">
-        <v>7.431745473584144</v>
+        <v>11.65886459496066</v>
       </c>
       <c r="E79">
-        <v>2.318855713209402</v>
+        <v>-4.407447658095417</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1702,16 +1708,16 @@
         <v>16386.55462184874</v>
       </c>
       <c r="B80">
-        <v>4.499195457953119</v>
+        <v>9.892180357957816</v>
       </c>
       <c r="C80">
-        <v>-0.5172927253720907</v>
+        <v>2.760272492460589</v>
       </c>
       <c r="D80">
-        <v>8.314043673546472</v>
+        <v>11.89698325794999</v>
       </c>
       <c r="E80">
-        <v>2.463062833954757</v>
+        <v>-0.8393885594623933</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1719,16 +1725,16 @@
         <v>16596.63865546219</v>
       </c>
       <c r="B81">
-        <v>5.45128897002555</v>
+        <v>12.05951897023483</v>
       </c>
       <c r="C81">
-        <v>-0.5128311103501955</v>
+        <v>2.836896822397766</v>
       </c>
       <c r="D81">
-        <v>8.013547686135112</v>
+        <v>13.14639521886457</v>
       </c>
       <c r="E81">
-        <v>2.254970658355921</v>
+        <v>-2.008958804296133</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1736,16 +1742,16 @@
         <v>16806.72268907563</v>
       </c>
       <c r="B82">
-        <v>3.886341050473024</v>
+        <v>11.00283183268433</v>
       </c>
       <c r="C82">
-        <v>-1.523777772704011</v>
+        <v>2.706431285013859</v>
       </c>
       <c r="D82">
-        <v>7.56371816788821</v>
+        <v>11.2787131500972</v>
       </c>
       <c r="E82">
-        <v>1.743089691504792</v>
+        <v>-3.695758353959939</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1753,16 +1759,16 @@
         <v>17016.80672268907</v>
       </c>
       <c r="B83">
-        <v>1.997307706142084</v>
+        <v>9.097176895882416</v>
       </c>
       <c r="C83">
-        <v>-3.155715594574483</v>
+        <v>2.419239899428792</v>
       </c>
       <c r="D83">
-        <v>7.654348019714158</v>
+        <v>9.007661629903566</v>
       </c>
       <c r="E83">
-        <v>1.523746325353447</v>
+        <v>-3.073114772110273</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1770,16 +1776,16 @@
         <v>17226.89075630252</v>
       </c>
       <c r="B84">
-        <v>0.8091267439811376</v>
+        <v>7.367427720366424</v>
       </c>
       <c r="C84">
-        <v>-3.62656457082737</v>
+        <v>2.769040419030247</v>
       </c>
       <c r="D84">
-        <v>8.029266980391403</v>
+        <v>7.417081109998181</v>
       </c>
       <c r="E84">
-        <v>1.562660075300387</v>
+        <v>-3.132726662789226</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1787,16 +1793,16 @@
         <v>17436.97478991597</v>
       </c>
       <c r="B85">
-        <v>-0.1780627411946716</v>
+        <v>5.800435590988419</v>
       </c>
       <c r="C85">
-        <v>-1.998428287982247</v>
+        <v>3.995246891100139</v>
       </c>
       <c r="D85">
-        <v>8.055977848524792</v>
+        <v>6.195292943087841</v>
       </c>
       <c r="E85">
-        <v>1.722552760158645</v>
+        <v>-5.661480109241023</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1804,16 +1810,16 @@
         <v>17647.05882352941</v>
       </c>
       <c r="B86">
-        <v>-0.503485848932252</v>
+        <v>4.798414454427866</v>
       </c>
       <c r="C86">
-        <v>0.2288297734703333</v>
+        <v>4.971578938889031</v>
       </c>
       <c r="D86">
-        <v>8.048342264225258</v>
+        <v>5.418064934369843</v>
       </c>
       <c r="E86">
-        <v>1.756989039392548</v>
+        <v>-8.528172484108264</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1821,16 +1827,16 @@
         <v>17857.14285714286</v>
       </c>
       <c r="B87">
-        <v>0.531263057200948</v>
+        <v>3.907876798106196</v>
       </c>
       <c r="C87">
-        <v>-0.2319382270725669</v>
+        <v>4.157721338636563</v>
       </c>
       <c r="D87">
-        <v>8.296071251263829</v>
+        <v>4.282860308579185</v>
       </c>
       <c r="E87">
-        <v>1.061239543636873</v>
+        <v>-10.25147071227205</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1838,16 +1844,16 @@
         <v>18067.2268907563</v>
       </c>
       <c r="B88">
-        <v>3.038395966628018</v>
+        <v>3.128654532206252</v>
       </c>
       <c r="C88">
-        <v>-4.216133327070091</v>
+        <v>-0.04404314523737174</v>
       </c>
       <c r="D88">
-        <v>8.211074639892972</v>
+        <v>2.126914354898536</v>
       </c>
       <c r="E88">
-        <v>-0.2836518125796079</v>
+        <v>-5.621944289727002</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1855,16 +1861,16 @@
         <v>18277.31092436975</v>
       </c>
       <c r="B89">
-        <v>6.545928916204714</v>
+        <v>1.570536445993034</v>
       </c>
       <c r="C89">
-        <v>-6.472105979197681</v>
+        <v>-3.576415388315385</v>
       </c>
       <c r="D89">
-        <v>8.239980588355916</v>
+        <v>0.574751596101005</v>
       </c>
       <c r="E89">
-        <v>-1.713687418264589</v>
+        <v>-2.747627141817927</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1872,16 +1878,16 @@
         <v>18487.39495798319</v>
       </c>
       <c r="B90">
-        <v>7.848443012920475</v>
+        <v>-2.124117599308724</v>
       </c>
       <c r="C90">
-        <v>-5.806087217099536</v>
+        <v>0.2741173840906237</v>
       </c>
       <c r="D90">
-        <v>6.250792060789637</v>
+        <v>-1.810871592758954</v>
       </c>
       <c r="E90">
-        <v>0.6763691134053309</v>
+        <v>-1.024775703099829</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1889,16 +1895,16 @@
         <v>18697.47899159664</v>
       </c>
       <c r="B91">
-        <v>1.110142941037758</v>
+        <v>-1.499528086130747</v>
       </c>
       <c r="C91">
-        <v>-4.111815364058677</v>
+        <v>1.566346223232017</v>
       </c>
       <c r="D91">
-        <v>0.6823077753100109</v>
+        <v>-1.569215456801736</v>
       </c>
       <c r="E91">
-        <v>3.382202111321616</v>
+        <v>6.628239166510475</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1906,16 +1912,16 @@
         <v>18907.56302521008</v>
       </c>
       <c r="B92">
-        <v>-1.070858719646563</v>
+        <v>-2.798662571234097</v>
       </c>
       <c r="C92">
-        <v>0.60732345291865</v>
+        <v>2.572730320503437</v>
       </c>
       <c r="D92">
-        <v>2.673482103319973</v>
+        <v>-0.5934131115458233</v>
       </c>
       <c r="E92">
-        <v>3.600113737713325</v>
+        <v>4.942247046680917</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1923,16 +1929,16 @@
         <v>19117.64705882353</v>
       </c>
       <c r="B93">
-        <v>-1.655037281168695</v>
+        <v>-3.575703349669316</v>
       </c>
       <c r="C93">
-        <v>0.7391066961990058</v>
+        <v>3.136560461623819</v>
       </c>
       <c r="D93">
-        <v>3.478458762889068</v>
+        <v>-0.05765683072738859</v>
       </c>
       <c r="E93">
-        <v>2.720501180135853</v>
+        <v>1.135959474291119</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1940,16 +1946,16 @@
         <v>19327.73109243697</v>
       </c>
       <c r="B94">
-        <v>-3.6476429859515</v>
+        <v>-2.225182948948933</v>
       </c>
       <c r="C94">
-        <v>-1.244227555866032</v>
+        <v>2.86444777066307</v>
       </c>
       <c r="D94">
-        <v>1.302918785666948</v>
+        <v>0.3862066123474837</v>
       </c>
       <c r="E94">
-        <v>2.103756792236685</v>
+        <v>-0.6286898212885697</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1957,16 +1963,16 @@
         <v>19537.81512605042</v>
       </c>
       <c r="B95">
-        <v>-6.609603862176254</v>
+        <v>0.2702756313091685</v>
       </c>
       <c r="C95">
-        <v>-0.1269569332011593</v>
+        <v>3.730131796469412</v>
       </c>
       <c r="D95">
-        <v>-2.393164177720189</v>
+        <v>0.4534540686215207</v>
       </c>
       <c r="E95">
-        <v>1.59133416636851</v>
+        <v>-5.947747991337213</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1974,16 +1980,16 @@
         <v>19747.89915966387</v>
       </c>
       <c r="B96">
-        <v>-9.74674051287943</v>
+        <v>2.941981753335806</v>
       </c>
       <c r="C96">
-        <v>0.9417768583537128</v>
+        <v>4.017537983872259</v>
       </c>
       <c r="D96">
-        <v>-6.420914784322762</v>
+        <v>0.8584472355190078</v>
       </c>
       <c r="E96">
-        <v>1.93838274909077</v>
+        <v>-4.495990900150579</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1991,16 +1997,16 @@
         <v>19957.98319327731</v>
       </c>
       <c r="B97">
-        <v>-8.91468730779744</v>
+        <v>2.409606581541111</v>
       </c>
       <c r="C97">
-        <v>0.3664692534887681</v>
+        <v>3.586809266120009</v>
       </c>
       <c r="D97">
-        <v>-7.066050641325679</v>
+        <v>0.6591558911254549</v>
       </c>
       <c r="E97">
-        <v>3.022559769595252</v>
+        <v>2.86297939849074</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2008,16 +2014,16 @@
         <v>20168.06722689075</v>
       </c>
       <c r="B98">
-        <v>-4.646757000820797</v>
+        <v>-1.04022215694834</v>
       </c>
       <c r="C98">
-        <v>0.5796639537530883</v>
+        <v>4.050291123468329</v>
       </c>
       <c r="D98">
-        <v>-4.550837518215127</v>
+        <v>-0.6465969889195589</v>
       </c>
       <c r="E98">
-        <v>3.827535878266632</v>
+        <v>4.697931313294314</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2025,16 +2031,16 @@
         <v>20378.1512605042</v>
       </c>
       <c r="B99">
-        <v>-1.799129899197466</v>
+        <v>-3.497059304148628</v>
       </c>
       <c r="C99">
-        <v>1.402779679350482</v>
+        <v>4.139916749591145</v>
       </c>
       <c r="D99">
-        <v>-2.768303043355357</v>
+        <v>-1.516806422692365</v>
       </c>
       <c r="E99">
-        <v>3.914125452397784</v>
+        <v>3.01143991326685</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2042,16 +2048,16 @@
         <v>20588.23529411765</v>
       </c>
       <c r="B100">
-        <v>-2.813035155675388</v>
+        <v>-3.992717735282207</v>
       </c>
       <c r="C100">
-        <v>2.061941144820428</v>
+        <v>3.430111074426224</v>
       </c>
       <c r="D100">
-        <v>-3.260597436488106</v>
+        <v>-2.889171911696799</v>
       </c>
       <c r="E100">
-        <v>3.541170164356453</v>
+        <v>2.816976764514892</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2059,16 +2065,16 @@
         <v>20798.31932773109</v>
       </c>
       <c r="B101">
-        <v>-4.25110567139955</v>
+        <v>-4.126328806563563</v>
       </c>
       <c r="C101">
-        <v>1.791497435599624</v>
+        <v>2.900933384016172</v>
       </c>
       <c r="D101">
-        <v>-3.504962903498886</v>
+        <v>-3.491010583449632</v>
       </c>
       <c r="E101">
-        <v>2.900842602184822</v>
+        <v>1.802379742738462</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2076,16 +2082,16 @@
         <v>21008.40336134454</v>
       </c>
       <c r="B102">
-        <v>-3.890011767226814</v>
+        <v>-2.338900437587434</v>
       </c>
       <c r="C102">
-        <v>0.3259052149396142</v>
+        <v>5.089017470196731</v>
       </c>
       <c r="D102">
-        <v>-1.428397355319775</v>
+        <v>-1.885008197272336</v>
       </c>
       <c r="E102">
-        <v>3.021935420014614</v>
+        <v>-1.408979447552835</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2093,16 +2099,16 @@
         <v>21218.48739495798</v>
       </c>
       <c r="B103">
-        <v>-13.13764299508746</v>
+        <v>1.793572918840529</v>
       </c>
       <c r="C103">
-        <v>-1.880693249041942</v>
+        <v>5.092965868747306</v>
       </c>
       <c r="D103">
-        <v>-3.168921591083206</v>
+        <v>-1.866985048239586</v>
       </c>
       <c r="E103">
-        <v>2.298630539719646</v>
+        <v>-1.911347653336072</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2110,16 +2116,16 @@
         <v>21428.57142857143</v>
       </c>
       <c r="B104">
-        <v>-17.53628715935949</v>
+        <v>2.386942761608074</v>
       </c>
       <c r="C104">
-        <v>-4.122794204621822</v>
+        <v>1.899010054764667</v>
       </c>
       <c r="D104">
-        <v>-4.271769444975227</v>
+        <v>-1.284517287895782</v>
       </c>
       <c r="E104">
-        <v>1.182603148610751</v>
+        <v>1.257783479950522</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2127,16 +2133,16 @@
         <v>21638.65546218487</v>
       </c>
       <c r="B105">
-        <v>-7.698428734817069</v>
+        <v>-3.352846631491833</v>
       </c>
       <c r="C105">
-        <v>-4.955548292333376</v>
+        <v>0.1258827850078679</v>
       </c>
       <c r="D105">
-        <v>-1.917730668956383</v>
+        <v>-2.139761046870254</v>
       </c>
       <c r="E105">
-        <v>0.7341864905131241</v>
+        <v>2.416873293322864</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2144,16 +2150,16 @@
         <v>21848.73949579832</v>
       </c>
       <c r="B106">
-        <v>-2.690184586846766</v>
+        <v>-5.150173220525947</v>
       </c>
       <c r="C106">
-        <v>-3.980953993699164</v>
+        <v>-2.406794637986886</v>
       </c>
       <c r="D106">
-        <v>-2.513198959183408</v>
+        <v>-3.574997176445058</v>
       </c>
       <c r="E106">
-        <v>-0.9654856058427517</v>
+        <v>1.293946018409462</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2161,16 +2167,16 @@
         <v>22058.82352941176</v>
       </c>
       <c r="B107">
-        <v>-1.751611992105648</v>
+        <v>-3.698429349809084</v>
       </c>
       <c r="C107">
-        <v>-2.550884210884324</v>
+        <v>-4.622185771100814</v>
       </c>
       <c r="D107">
-        <v>-4.008193684502078</v>
+        <v>-4.643468289491192</v>
       </c>
       <c r="E107">
-        <v>-0.5357860452290002</v>
+        <v>4.600408563250109</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2178,16 +2184,16 @@
         <v>22268.90756302521</v>
       </c>
       <c r="B108">
-        <v>-6.426162514582105</v>
+        <v>-2.417293756441937</v>
       </c>
       <c r="C108">
-        <v>-3.749467404868705</v>
+        <v>-1.144861996508704</v>
       </c>
       <c r="D108">
-        <v>-10.03363587489358</v>
+        <v>-3.026824914126121</v>
       </c>
       <c r="E108">
-        <v>1.639113903701871</v>
+        <v>6.122678883766866</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2195,16 +2201,16 @@
         <v>22478.99159663865</v>
       </c>
       <c r="B109">
-        <v>-5.192395683744733</v>
+        <v>-5.349091913931136</v>
       </c>
       <c r="C109">
-        <v>-2.251977751986323</v>
+        <v>0.3972897903368275</v>
       </c>
       <c r="D109">
-        <v>-8.804249838591655</v>
+        <v>-3.368615889091951</v>
       </c>
       <c r="E109">
-        <v>2.379686230289359</v>
+        <v>5.421955555298551</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2212,16 +2218,16 @@
         <v>22689.0756302521</v>
       </c>
       <c r="B110">
-        <v>-3.976978619024804</v>
+        <v>-7.165463870896286</v>
       </c>
       <c r="C110">
-        <v>1.974387209705931</v>
+        <v>1.097871595207756</v>
       </c>
       <c r="D110">
-        <v>-7.68409776095209</v>
+        <v>-5.677465789376941</v>
       </c>
       <c r="E110">
-        <v>2.038607254772345</v>
+        <v>1.229082465541282</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2229,16 +2235,16 @@
         <v>22899.15966386555</v>
       </c>
       <c r="B111">
-        <v>-6.315048766589951</v>
+        <v>-4.544077318094148</v>
       </c>
       <c r="C111">
-        <v>4.35636508548839</v>
+        <v>1.975426811724021</v>
       </c>
       <c r="D111">
-        <v>-9.291449243032783</v>
+        <v>-5.787761105774453</v>
       </c>
       <c r="E111">
-        <v>1.481817094951557</v>
+        <v>-1.600284290410242</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2246,16 +2252,16 @@
         <v>23109.24369747899</v>
       </c>
       <c r="B112">
-        <v>-9.094047700687995</v>
+        <v>-2.186503829744629</v>
       </c>
       <c r="C112">
-        <v>3.217745296873627</v>
+        <v>3.22701195165688</v>
       </c>
       <c r="D112">
-        <v>-9.1500228549568</v>
+        <v>-5.948063781182506</v>
       </c>
       <c r="E112">
-        <v>0.9976678594968533</v>
+        <v>-2.792341634095307</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2263,16 +2269,16 @@
         <v>23319.32773109243</v>
       </c>
       <c r="B113">
-        <v>-10.41569470345096</v>
+        <v>0.1477942331862678</v>
       </c>
       <c r="C113">
-        <v>1.558624834382275</v>
+        <v>2.704201496602059</v>
       </c>
       <c r="D113">
-        <v>-7.631553019049306</v>
+        <v>-5.416524129335047</v>
       </c>
       <c r="E113">
-        <v>0.1107198267857024</v>
+        <v>-2.621746013044752</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2280,16 +2286,16 @@
         <v>23529.41176470588</v>
       </c>
       <c r="B114">
-        <v>-9.698444423891839</v>
+        <v>0.6668574879626554</v>
       </c>
       <c r="C114">
-        <v>-0.7648771141252553</v>
+        <v>-0.04671780440753293</v>
       </c>
       <c r="D114">
-        <v>-3.748871526728723</v>
+        <v>-4.519340790031496</v>
       </c>
       <c r="E114">
-        <v>-1.347110181998929</v>
+        <v>-1.567516086551494</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2297,16 +2303,16 @@
         <v>23739.49579831933</v>
       </c>
       <c r="B115">
-        <v>-10.83389640486512</v>
+        <v>-0.8907087737166108</v>
       </c>
       <c r="C115">
-        <v>-1.283192646750112</v>
+        <v>1.965848784100211</v>
       </c>
       <c r="D115">
-        <v>-3.186125426402887</v>
+        <v>-3.428812227519301</v>
       </c>
       <c r="E115">
-        <v>-1.234394621614732</v>
+        <v>-4.041146940386656</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2314,16 +2320,16 @@
         <v>23949.57983193277</v>
       </c>
       <c r="B116">
-        <v>-11.79882134264073</v>
+        <v>-1.178561828872116</v>
       </c>
       <c r="C116">
-        <v>-1.612852831751931</v>
+        <v>2.505509978664407</v>
       </c>
       <c r="D116">
-        <v>-5.311621301411502</v>
+        <v>-3.047311339729556</v>
       </c>
       <c r="E116">
-        <v>-1.286493078258925</v>
+        <v>-4.560302144193765</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2331,16 +2337,16 @@
         <v>24159.66386554622</v>
       </c>
       <c r="B117">
-        <v>-8.396224734067541</v>
+        <v>-0.4020685409852036</v>
       </c>
       <c r="C117">
-        <v>-3.047164259991038</v>
+        <v>0.144684353212029</v>
       </c>
       <c r="D117">
-        <v>-4.678017157730963</v>
+        <v>-2.371253818918512</v>
       </c>
       <c r="E117">
-        <v>-1.711694420148772</v>
+        <v>-1.028965284756717</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2348,16 +2354,16 @@
         <v>24369.74789915966</v>
       </c>
       <c r="B118">
-        <v>-7.399031015783804</v>
+        <v>-2.408027408902068</v>
       </c>
       <c r="C118">
-        <v>-6.499622929382399</v>
+        <v>0.3925541084704185</v>
       </c>
       <c r="D118">
-        <v>-3.054713208998607</v>
+        <v>-2.868587950830498</v>
       </c>
       <c r="E118">
-        <v>-1.346770041444734</v>
+        <v>-0.5230396581444502</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2365,16 +2371,16 @@
         <v>24579.83193277311</v>
       </c>
       <c r="B119">
-        <v>-8.700801932906639</v>
+        <v>-5.164221333767551</v>
       </c>
       <c r="C119">
-        <v>-7.99165945199887</v>
+        <v>0.331232582343433</v>
       </c>
       <c r="D119">
-        <v>-3.306319561228569</v>
+        <v>-4.084441424806492</v>
       </c>
       <c r="E119">
-        <v>-1.356853500708343</v>
+        <v>-1.357546475276259</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2382,16 +2388,16 @@
         <v>24789.91596638655</v>
       </c>
       <c r="B120">
-        <v>-9.396019170690316</v>
+        <v>-8.691680896532148</v>
       </c>
       <c r="C120">
-        <v>-7.980920924925901</v>
+        <v>0.05018065782765968</v>
       </c>
       <c r="D120">
-        <v>-3.762262873410419</v>
+        <v>-4.952491355783527</v>
       </c>
       <c r="E120">
-        <v>-2.064340897878816</v>
+        <v>-3.529117770162151</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2399,16 +2405,16 @@
         <v>25000</v>
       </c>
       <c r="B121">
-        <v>-10.64420074220873</v>
+        <v>-6.674445454524127</v>
       </c>
       <c r="C121">
-        <v>-4.018624847109526</v>
+        <v>2.21694525392741</v>
       </c>
       <c r="D121">
-        <v>-4.877775446182689</v>
+        <v>-5.665048419825472</v>
       </c>
       <c r="E121">
-        <v>-1.957532198356193</v>
+        <v>-8.134279420513808</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/MonteCarlo_sim_wind.xlsx
+++ b/Outputs/MonteCarlo_sim_wind.xlsx
@@ -382,16 +382,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-1.306590578910257</v>
+        <v>-1.084325563068329</v>
       </c>
       <c r="C2">
-        <v>5.764436417344995</v>
+        <v>2.846406660634659</v>
       </c>
       <c r="D2">
-        <v>-0.0220704900446077</v>
+        <v>-0.1019818458000647</v>
       </c>
       <c r="E2">
-        <v>1.935056136323546</v>
+        <v>0.7059191086969019</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -399,16 +399,16 @@
         <v>210.0840336134454</v>
       </c>
       <c r="B3">
-        <v>-1.306589836878008</v>
+        <v>-1.084324967952939</v>
       </c>
       <c r="C3">
-        <v>5.764436155437701</v>
+        <v>2.846407304594486</v>
       </c>
       <c r="D3">
-        <v>-0.02206958708888096</v>
+        <v>-0.1019823485890979</v>
       </c>
       <c r="E3">
-        <v>1.935055998019657</v>
+        <v>0.7059192916854387</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -416,16 +416,16 @@
         <v>420.1680672268907</v>
       </c>
       <c r="B4">
-        <v>-1.306591310190706</v>
+        <v>-1.084325843570201</v>
       </c>
       <c r="C4">
-        <v>5.764435983830746</v>
+        <v>2.846405890796438</v>
       </c>
       <c r="D4">
-        <v>-0.02207067173700428</v>
+        <v>-0.1019817325928242</v>
       </c>
       <c r="E4">
-        <v>1.935055784146118</v>
+        <v>0.7059193841515405</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -433,16 +433,16 @@
         <v>630.2521008403361</v>
       </c>
       <c r="B5">
-        <v>-1.306590452777964</v>
+        <v>-1.084325542540558</v>
       </c>
       <c r="C5">
-        <v>5.764436700604781</v>
+        <v>2.846406602486097</v>
       </c>
       <c r="D5">
-        <v>-0.02207168015506195</v>
+        <v>-0.1019817034823209</v>
       </c>
       <c r="E5">
-        <v>1.935055906913254</v>
+        <v>0.705918604318732</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -450,16 +450,16 @@
         <v>840.3361344537815</v>
       </c>
       <c r="B6">
-        <v>1.276977618494312</v>
+        <v>2.344642702565773</v>
       </c>
       <c r="C6">
-        <v>8.53078897851637</v>
+        <v>5.063584530891498</v>
       </c>
       <c r="D6">
-        <v>3.332910344348261</v>
+        <v>3.763013297855902</v>
       </c>
       <c r="E6">
-        <v>3.057411931645787</v>
+        <v>3.257411307277756</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -467,16 +467,16 @@
         <v>1050.420168067227</v>
       </c>
       <c r="B7">
-        <v>4.957990167476105</v>
+        <v>5.136080362840094</v>
       </c>
       <c r="C7">
-        <v>6.871633781301094</v>
+        <v>4.124493324982869</v>
       </c>
       <c r="D7">
-        <v>4.664480021345688</v>
+        <v>4.302757326312294</v>
       </c>
       <c r="E7">
-        <v>-0.01895340746920926</v>
+        <v>2.127875093221489</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -484,16 +484,16 @@
         <v>1260.504201680672</v>
       </c>
       <c r="B8">
-        <v>5.089210367614807</v>
+        <v>6.361813012894429</v>
       </c>
       <c r="C8">
-        <v>6.13049854734186</v>
+        <v>1.102319962723241</v>
       </c>
       <c r="D8">
-        <v>3.587422192721215</v>
+        <v>4.954244517920058</v>
       </c>
       <c r="E8">
-        <v>-2.140820482725488</v>
+        <v>-1.657206221973742</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -501,16 +501,16 @@
         <v>1470.588235294118</v>
       </c>
       <c r="B9">
-        <v>4.701180611065442</v>
+        <v>7.51016142226131</v>
       </c>
       <c r="C9">
-        <v>7.621570489574008</v>
+        <v>-0.08953610856828487</v>
       </c>
       <c r="D9">
-        <v>2.777332486457325</v>
+        <v>4.458500454203815</v>
       </c>
       <c r="E9">
-        <v>-6.287425233216235</v>
+        <v>-5.595366456057191</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -518,16 +518,16 @@
         <v>1680.672268907563</v>
       </c>
       <c r="B10">
-        <v>3.721418169729581</v>
+        <v>7.676607219764657</v>
       </c>
       <c r="C10">
-        <v>8.339378627445695</v>
+        <v>0.8675479888992492</v>
       </c>
       <c r="D10">
-        <v>2.072940467750612</v>
+        <v>2.499865163442277</v>
       </c>
       <c r="E10">
-        <v>-6.790366590785617</v>
+        <v>-5.766036238092662</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -535,16 +535,16 @@
         <v>1890.756302521008</v>
       </c>
       <c r="B11">
-        <v>2.639687657351907</v>
+        <v>7.47465134770845</v>
       </c>
       <c r="C11">
-        <v>9.140203784901443</v>
+        <v>3.557722299021958</v>
       </c>
       <c r="D11">
-        <v>1.215003383265563</v>
+        <v>1.259380400491431</v>
       </c>
       <c r="E11">
-        <v>-3.101305919775478</v>
+        <v>-1.942271953387102</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -552,16 +552,16 @@
         <v>2100.840336134454</v>
       </c>
       <c r="B12">
-        <v>1.210033514157614</v>
+        <v>6.361051022130296</v>
       </c>
       <c r="C12">
-        <v>11.12929182584275</v>
+        <v>2.789577338450993</v>
       </c>
       <c r="D12">
-        <v>0.1662528063491377</v>
+        <v>0.8540584560050728</v>
       </c>
       <c r="E12">
-        <v>-3.861535619282384</v>
+        <v>-4.954263068428557</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -569,16 +569,16 @@
         <v>2310.924369747899</v>
       </c>
       <c r="B13">
-        <v>0.1247860788509267</v>
+        <v>3.874870276564252</v>
       </c>
       <c r="C13">
-        <v>10.36065297687352</v>
+        <v>4.318111400840134</v>
       </c>
       <c r="D13">
-        <v>-0.5946945658915335</v>
+        <v>1.13985092662178</v>
       </c>
       <c r="E13">
-        <v>-2.460165886701193</v>
+        <v>-1.907132842383402</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -586,16 +586,16 @@
         <v>2521.008403361344</v>
       </c>
       <c r="B14">
-        <v>-0.1319497779137382</v>
+        <v>2.839183218239617</v>
       </c>
       <c r="C14">
-        <v>9.945775602529</v>
+        <v>4.582820994099384</v>
       </c>
       <c r="D14">
-        <v>-0.8300007846015189</v>
+        <v>1.336901430485882</v>
       </c>
       <c r="E14">
-        <v>-3.715097498139927</v>
+        <v>-1.73249791387603</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -603,16 +603,16 @@
         <v>2731.09243697479</v>
       </c>
       <c r="B15">
-        <v>0.2053476654848547</v>
+        <v>3.502622431023882</v>
       </c>
       <c r="C15">
-        <v>10.81085734995125</v>
+        <v>4.057616699744668</v>
       </c>
       <c r="D15">
-        <v>-0.8411501989534775</v>
+        <v>1.147664885058089</v>
       </c>
       <c r="E15">
-        <v>-5.012581617613995</v>
+        <v>-3.185755461288344</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -620,16 +620,16 @@
         <v>2941.176470588235</v>
       </c>
       <c r="B16">
-        <v>-0.8360877062448498</v>
+        <v>1.932902210626196</v>
       </c>
       <c r="C16">
-        <v>11.31078465370708</v>
+        <v>3.03321693097653</v>
       </c>
       <c r="D16">
-        <v>-0.8988456581347065</v>
+        <v>1.454684771657823</v>
       </c>
       <c r="E16">
-        <v>-6.0814115544342</v>
+        <v>-4.580685081209164</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -637,16 +637,16 @@
         <v>3151.260504201681</v>
       </c>
       <c r="B17">
-        <v>-1.496700674976268</v>
+        <v>1.422180211295086</v>
       </c>
       <c r="C17">
-        <v>10.92084847750115</v>
+        <v>3.164538526921701</v>
       </c>
       <c r="D17">
-        <v>-1.196586528414408</v>
+        <v>1.875122270038626</v>
       </c>
       <c r="E17">
-        <v>-5.765176609688965</v>
+        <v>-3.829616926742026</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -654,16 +654,16 @@
         <v>3361.344537815126</v>
       </c>
       <c r="B18">
-        <v>-1.299090470326273</v>
+        <v>-0.1560443736859747</v>
       </c>
       <c r="C18">
-        <v>10.09484016540079</v>
+        <v>2.47198953945655</v>
       </c>
       <c r="D18">
-        <v>-1.008136441940186</v>
+        <v>2.298700282068225</v>
       </c>
       <c r="E18">
-        <v>-4.144981574368555</v>
+        <v>-5.474912666573618</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -671,16 +671,16 @@
         <v>3571.428571428571</v>
       </c>
       <c r="B19">
-        <v>-1.725133456269089</v>
+        <v>0.8325268755523709</v>
       </c>
       <c r="C19">
-        <v>9.069132307659565</v>
+        <v>1.708683875263742</v>
       </c>
       <c r="D19">
-        <v>-0.5446315469719427</v>
+        <v>2.645037844074747</v>
       </c>
       <c r="E19">
-        <v>-4.234092977786731</v>
+        <v>-6.308337434091411</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -688,16 +688,16 @@
         <v>3781.512605042017</v>
       </c>
       <c r="B20">
-        <v>-2.223381259501934</v>
+        <v>0.3293524445973126</v>
       </c>
       <c r="C20">
-        <v>9.364408401435348</v>
+        <v>1.424852807734904</v>
       </c>
       <c r="D20">
-        <v>0.5291724573545622</v>
+        <v>3.403575958581123</v>
       </c>
       <c r="E20">
-        <v>-4.065913612314239</v>
+        <v>-6.198322862166659</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -705,16 +705,16 @@
         <v>3991.596638655462</v>
       </c>
       <c r="B21">
-        <v>-1.507368003222828</v>
+        <v>-0.8029290078451381</v>
       </c>
       <c r="C21">
-        <v>9.903886821163486</v>
+        <v>2.234760059896633</v>
       </c>
       <c r="D21">
-        <v>2.37736145505592</v>
+        <v>4.492300625014158</v>
       </c>
       <c r="E21">
-        <v>-3.432174010168622</v>
+        <v>-4.345098363695176</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -722,16 +722,16 @@
         <v>4201.680672268907</v>
       </c>
       <c r="B22">
-        <v>0.320848740076896</v>
+        <v>-1.149137177832833</v>
       </c>
       <c r="C22">
-        <v>10.17069551925622</v>
+        <v>2.518052768232662</v>
       </c>
       <c r="D22">
-        <v>4.27009537732585</v>
+        <v>5.224241632848523</v>
       </c>
       <c r="E22">
-        <v>-2.087066440417117</v>
+        <v>-3.092210851984098</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -739,16 +739,16 @@
         <v>4411.764705882353</v>
       </c>
       <c r="B23">
-        <v>1.939147548650777</v>
+        <v>-1.532981585814229</v>
       </c>
       <c r="C23">
-        <v>9.29654073126882</v>
+        <v>3.399874469575529</v>
       </c>
       <c r="D23">
-        <v>5.448531687506782</v>
+        <v>5.68252855842325</v>
       </c>
       <c r="E23">
-        <v>-1.423989857916601</v>
+        <v>-1.44596394897083</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -756,16 +756,16 @@
         <v>4621.848739495798</v>
       </c>
       <c r="B24">
-        <v>0.6826829232353528</v>
+        <v>-2.617342070029045</v>
       </c>
       <c r="C24">
-        <v>7.983431061345472</v>
+        <v>4.461152778108625</v>
       </c>
       <c r="D24">
-        <v>4.76126210113138</v>
+        <v>5.687800267027264</v>
       </c>
       <c r="E24">
-        <v>-1.866506605839525</v>
+        <v>0.2807187604200347</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -773,16 +773,16 @@
         <v>4831.932773109243</v>
       </c>
       <c r="B25">
-        <v>-0.5238030162266174</v>
+        <v>-3.131167197070193</v>
       </c>
       <c r="C25">
-        <v>7.343985619219561</v>
+        <v>3.82329433332404</v>
       </c>
       <c r="D25">
-        <v>4.418052668654392</v>
+        <v>5.423313159238019</v>
       </c>
       <c r="E25">
-        <v>-2.241597091550552</v>
+        <v>-0.5986777676467216</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -790,16 +790,16 @@
         <v>5042.016806722689</v>
       </c>
       <c r="B26">
-        <v>-1.146536918189525</v>
+        <v>-2.968425115386195</v>
       </c>
       <c r="C26">
-        <v>6.468992822489629</v>
+        <v>3.020543202350018</v>
       </c>
       <c r="D26">
-        <v>5.00843257849165</v>
+        <v>5.577110614751813</v>
       </c>
       <c r="E26">
-        <v>-2.913805039438303</v>
+        <v>-2.305239039016181</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -807,16 +807,16 @@
         <v>5252.100840336134</v>
       </c>
       <c r="B27">
-        <v>-1.212897866097311</v>
+        <v>-2.452657320276068</v>
       </c>
       <c r="C27">
-        <v>5.763696995363217</v>
+        <v>2.445173059580576</v>
       </c>
       <c r="D27">
-        <v>5.905552739002055</v>
+        <v>5.387000400430566</v>
       </c>
       <c r="E27">
-        <v>-3.464112606787592</v>
+        <v>-4.074166557928</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -824,16 +824,16 @@
         <v>5462.18487394958</v>
       </c>
       <c r="B28">
-        <v>-0.6722131523075268</v>
+        <v>-1.516868785293089</v>
       </c>
       <c r="C28">
-        <v>5.876977049997249</v>
+        <v>2.323874769571987</v>
       </c>
       <c r="D28">
-        <v>6.813280082071822</v>
+        <v>4.598149206384634</v>
       </c>
       <c r="E28">
-        <v>-1.28728284030531</v>
+        <v>-5.822780429030717</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -841,16 +841,16 @@
         <v>5672.268907563025</v>
       </c>
       <c r="B29">
-        <v>0.7014097861146462</v>
+        <v>1.632029983742719</v>
       </c>
       <c r="C29">
-        <v>6.423013109256176</v>
+        <v>2.510817311937259</v>
       </c>
       <c r="D29">
-        <v>7.486218137794955</v>
+        <v>3.747839763270048</v>
       </c>
       <c r="E29">
-        <v>0.3288517561273085</v>
+        <v>-6.011869165030981</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -858,16 +858,16 @@
         <v>5882.35294117647</v>
       </c>
       <c r="B30">
-        <v>2.606512887478225</v>
+        <v>3.742451670055119</v>
       </c>
       <c r="C30">
-        <v>7.046251824103845</v>
+        <v>3.443459518176476</v>
       </c>
       <c r="D30">
-        <v>8.449283038119116</v>
+        <v>3.694577395908543</v>
       </c>
       <c r="E30">
-        <v>0.7125850746491453</v>
+        <v>-4.676441081038453</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -875,16 +875,16 @@
         <v>6092.436974789915</v>
       </c>
       <c r="B31">
-        <v>3.566437286527268</v>
+        <v>3.677221298085332</v>
       </c>
       <c r="C31">
-        <v>7.97562759900115</v>
+        <v>4.70399707293673</v>
       </c>
       <c r="D31">
-        <v>9.379745785779438</v>
+        <v>4.24308382953868</v>
       </c>
       <c r="E31">
-        <v>-1.353603342039028</v>
+        <v>-2.762072369422544</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -892,16 +892,16 @@
         <v>6302.521008403362</v>
       </c>
       <c r="B32">
-        <v>3.901843036042958</v>
+        <v>3.274346320896806</v>
       </c>
       <c r="C32">
-        <v>9.667896076638723</v>
+        <v>4.550261596765267</v>
       </c>
       <c r="D32">
-        <v>10.4743372836273</v>
+        <v>3.916783430275432</v>
       </c>
       <c r="E32">
-        <v>-3.749137142146408</v>
+        <v>-2.559958569446721</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -909,16 +909,16 @@
         <v>6512.605042016807</v>
       </c>
       <c r="B33">
-        <v>4.306314182486213</v>
+        <v>3.387568223901849</v>
       </c>
       <c r="C33">
-        <v>9.954000664375553</v>
+        <v>4.579752632348121</v>
       </c>
       <c r="D33">
-        <v>11.30165595970524</v>
+        <v>4.044129001541259</v>
       </c>
       <c r="E33">
-        <v>-4.407752471729768</v>
+        <v>-2.455002465856865</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -926,16 +926,16 @@
         <v>6722.689075630252</v>
       </c>
       <c r="B34">
-        <v>4.674454769036205</v>
+        <v>3.646097593719398</v>
       </c>
       <c r="C34">
-        <v>9.12926004901149</v>
+        <v>3.989795489760319</v>
       </c>
       <c r="D34">
-        <v>11.76157981629731</v>
+        <v>4.311488246046673</v>
       </c>
       <c r="E34">
-        <v>-2.809389815192461</v>
+        <v>-3.200305696858409</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -943,16 +943,16 @@
         <v>6932.773109243697</v>
       </c>
       <c r="B35">
-        <v>4.739839771130295</v>
+        <v>3.213322866658977</v>
       </c>
       <c r="C35">
-        <v>7.942705911956032</v>
+        <v>1.919324702227485</v>
       </c>
       <c r="D35">
-        <v>12.14950036100175</v>
+        <v>5.097569682653962</v>
       </c>
       <c r="E35">
-        <v>0.3380832383047059</v>
+        <v>-5.778406825584642</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -960,16 +960,16 @@
         <v>7142.857142857142</v>
       </c>
       <c r="B36">
-        <v>5.359667028554076</v>
+        <v>3.728935368513374</v>
       </c>
       <c r="C36">
-        <v>6.535472029640849</v>
+        <v>0.8194016251681004</v>
       </c>
       <c r="D36">
-        <v>12.70514742087206</v>
+        <v>5.824609627794147</v>
       </c>
       <c r="E36">
-        <v>2.285836528265253</v>
+        <v>-7.221326925886665</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -977,16 +977,16 @@
         <v>7352.941176470588</v>
       </c>
       <c r="B37">
-        <v>5.489263038767365</v>
+        <v>4.981028315126522</v>
       </c>
       <c r="C37">
-        <v>5.743780260444924</v>
+        <v>-1.351456739596215</v>
       </c>
       <c r="D37">
-        <v>12.92327561295724</v>
+        <v>6.284340441731715</v>
       </c>
       <c r="E37">
-        <v>3.034476970376998</v>
+        <v>-9.639042489689327</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -994,16 +994,16 @@
         <v>7563.025210084033</v>
       </c>
       <c r="B38">
-        <v>3.966715059189558</v>
+        <v>5.133389366327754</v>
       </c>
       <c r="C38">
-        <v>4.585337232726356</v>
+        <v>-0.06726159014357869</v>
       </c>
       <c r="D38">
-        <v>12.42956823924537</v>
+        <v>6.552455661178492</v>
       </c>
       <c r="E38">
-        <v>1.10551424803542</v>
+        <v>-6.930462235461931</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1011,16 +1011,16 @@
         <v>7773.109243697479</v>
       </c>
       <c r="B39">
-        <v>4.176581155344817</v>
+        <v>4.807274975188967</v>
       </c>
       <c r="C39">
-        <v>4.560351375558607</v>
+        <v>1.182475705559583</v>
       </c>
       <c r="D39">
-        <v>12.70141374557222</v>
+        <v>6.920950120047079</v>
       </c>
       <c r="E39">
-        <v>0.7073175909351761</v>
+        <v>-5.691738391218237</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1028,16 +1028,16 @@
         <v>7983.193277310924</v>
       </c>
       <c r="B40">
-        <v>3.8647108392168</v>
+        <v>4.432755178542812</v>
       </c>
       <c r="C40">
-        <v>4.806578708660314</v>
+        <v>1.814342337587834</v>
       </c>
       <c r="D40">
-        <v>12.78443841348047</v>
+        <v>7.584556042797004</v>
       </c>
       <c r="E40">
-        <v>1.064480351628975</v>
+        <v>-5.33793981575171</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1045,16 +1045,16 @@
         <v>8193.27731092437</v>
       </c>
       <c r="B41">
-        <v>3.549496913352757</v>
+        <v>4.800486235773946</v>
       </c>
       <c r="C41">
-        <v>5.164113336459648</v>
+        <v>1.54329142465094</v>
       </c>
       <c r="D41">
-        <v>12.53159093145892</v>
+        <v>7.486134593788417</v>
       </c>
       <c r="E41">
-        <v>2.039603257899771</v>
+        <v>-5.860193805546974</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1062,16 +1062,16 @@
         <v>8403.361344537814</v>
       </c>
       <c r="B42">
-        <v>4.124920521397059</v>
+        <v>5.718697260253286</v>
       </c>
       <c r="C42">
-        <v>5.580223876456348</v>
+        <v>1.355028809854515</v>
       </c>
       <c r="D42">
-        <v>12.84234440852081</v>
+        <v>7.4590816837769</v>
       </c>
       <c r="E42">
-        <v>3.108825524473158</v>
+        <v>-6.200063276590829</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1079,16 +1079,16 @@
         <v>8613.44537815126</v>
       </c>
       <c r="B43">
-        <v>5.392762998214589</v>
+        <v>6.445226886185008</v>
       </c>
       <c r="C43">
-        <v>6.112618279468097</v>
+        <v>1.065870706066408</v>
       </c>
       <c r="D43">
-        <v>13.65636380603997</v>
+        <v>7.59281563047958</v>
       </c>
       <c r="E43">
-        <v>3.5466465112881</v>
+        <v>-6.439972528060444</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1096,16 +1096,16 @@
         <v>8823.529411764706</v>
       </c>
       <c r="B44">
-        <v>6.745173699364774</v>
+        <v>7.680340148270832</v>
       </c>
       <c r="C44">
-        <v>6.634391767330854</v>
+        <v>0.7972729872915911</v>
       </c>
       <c r="D44">
-        <v>14.49045732156078</v>
+        <v>7.779930573598504</v>
       </c>
       <c r="E44">
-        <v>3.481887000725072</v>
+        <v>-6.540442694459246</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1113,16 +1113,16 @@
         <v>9033.613445378151</v>
       </c>
       <c r="B45">
-        <v>7.841375143195833</v>
+        <v>9.145393781174809</v>
       </c>
       <c r="C45">
-        <v>7.016527149477459</v>
+        <v>0.6806995526760748</v>
       </c>
       <c r="D45">
-        <v>15.10335077146355</v>
+        <v>7.902460879988446</v>
       </c>
       <c r="E45">
-        <v>3.217843655287842</v>
+        <v>-6.494941397721828</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1130,16 +1130,16 @@
         <v>9243.697478991597</v>
       </c>
       <c r="B46">
-        <v>8.351756885124846</v>
+        <v>10.36920273983496</v>
       </c>
       <c r="C46">
-        <v>7.400683495612629</v>
+        <v>-0.09199992815752722</v>
       </c>
       <c r="D46">
-        <v>15.27766281048257</v>
+        <v>7.851506187995172</v>
       </c>
       <c r="E46">
-        <v>4.216948126254261</v>
+        <v>-7.697508624042831</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1147,16 +1147,16 @@
         <v>9453.781512605041</v>
       </c>
       <c r="B47">
-        <v>7.793187772607885</v>
+        <v>10.68914197187253</v>
       </c>
       <c r="C47">
-        <v>8.655904223502292</v>
+        <v>-1.694856321920905</v>
       </c>
       <c r="D47">
-        <v>14.69003157726056</v>
+        <v>7.533870380856953</v>
       </c>
       <c r="E47">
-        <v>6.594719072609559</v>
+        <v>-11.15052148144834</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1164,16 +1164,16 @@
         <v>9663.865546218487</v>
       </c>
       <c r="B48">
-        <v>9.818413350674227</v>
+        <v>11.58179949847824</v>
       </c>
       <c r="C48">
-        <v>6.825716603316969</v>
+        <v>-2.946484802408794</v>
       </c>
       <c r="D48">
-        <v>16.108675381731</v>
+        <v>7.840712709381756</v>
       </c>
       <c r="E48">
-        <v>7.492291002047466</v>
+        <v>-10.63712670460706</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1181,16 +1181,16 @@
         <v>9873.949579831933</v>
       </c>
       <c r="B49">
-        <v>10.24667770561087</v>
+        <v>11.03659569972863</v>
       </c>
       <c r="C49">
-        <v>7.321803163206441</v>
+        <v>-2.688501102973194</v>
       </c>
       <c r="D49">
-        <v>16.56125582387353</v>
+        <v>7.901705520349937</v>
       </c>
       <c r="E49">
-        <v>6.073662820996086</v>
+        <v>-10.18873921420701</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1198,16 +1198,16 @@
         <v>10084.03361344538</v>
       </c>
       <c r="B50">
-        <v>10.06425868606691</v>
+        <v>9.411951640926432</v>
       </c>
       <c r="C50">
-        <v>8.220970845326107</v>
+        <v>-0.9409768751813674</v>
       </c>
       <c r="D50">
-        <v>16.91924749384829</v>
+        <v>8.369217821720735</v>
       </c>
       <c r="E50">
-        <v>4.045799998595199</v>
+        <v>-8.621117594663609</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1215,16 +1215,16 @@
         <v>10294.11764705882</v>
       </c>
       <c r="B51">
-        <v>10.41336190092146</v>
+        <v>7.864277358617715</v>
       </c>
       <c r="C51">
-        <v>8.3119215745846</v>
+        <v>0.9222101229933415</v>
       </c>
       <c r="D51">
-        <v>17.72901328667265</v>
+        <v>9.173076625697481</v>
       </c>
       <c r="E51">
-        <v>3.204151217687024</v>
+        <v>-6.54083405477863</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1232,16 +1232,16 @@
         <v>10504.20168067227</v>
       </c>
       <c r="B52">
-        <v>11.15684768830531</v>
+        <v>7.042813562615535</v>
       </c>
       <c r="C52">
-        <v>8.090727489101578</v>
+        <v>1.736489204140693</v>
       </c>
       <c r="D52">
-        <v>18.58337175117337</v>
+        <v>9.698236201999531</v>
       </c>
       <c r="E52">
-        <v>3.397403336719147</v>
+        <v>-5.414042892434598</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1249,16 +1249,16 @@
         <v>10714.28571428571</v>
       </c>
       <c r="B53">
-        <v>11.93668282138921</v>
+        <v>7.192513094711947</v>
       </c>
       <c r="C53">
-        <v>7.923566298251512</v>
+        <v>1.939554687814208</v>
       </c>
       <c r="D53">
-        <v>19.13278324344174</v>
+        <v>9.651892118906119</v>
       </c>
       <c r="E53">
-        <v>3.743527805821928</v>
+        <v>-4.995795819065858</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1266,16 +1266,16 @@
         <v>10924.36974789916</v>
       </c>
       <c r="B54">
-        <v>12.51525666698641</v>
+        <v>7.659299675995406</v>
       </c>
       <c r="C54">
-        <v>7.826350558463615</v>
+        <v>2.488768924539485</v>
       </c>
       <c r="D54">
-        <v>19.51670150876377</v>
+        <v>9.404415353556328</v>
       </c>
       <c r="E54">
-        <v>3.556388832865759</v>
+        <v>-4.298545686167575</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1283,16 +1283,16 @@
         <v>11134.4537815126</v>
       </c>
       <c r="B55">
-        <v>13.11587664933697</v>
+        <v>8.436492258740319</v>
       </c>
       <c r="C55">
-        <v>7.557345332274362</v>
+        <v>2.97624978823604</v>
       </c>
       <c r="D55">
-        <v>19.98372929369841</v>
+        <v>9.177190416532994</v>
       </c>
       <c r="E55">
-        <v>3.583965631775921</v>
+        <v>-3.600149986019145</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1300,16 +1300,16 @@
         <v>11344.53781512605</v>
       </c>
       <c r="B56">
-        <v>13.75152014010745</v>
+        <v>9.538885115174565</v>
       </c>
       <c r="C56">
-        <v>7.077227748439015</v>
+        <v>3.814014651931248</v>
       </c>
       <c r="D56">
-        <v>20.52235772102807</v>
+        <v>9.200210015015234</v>
       </c>
       <c r="E56">
-        <v>4.038312527123529</v>
+        <v>-2.561078918692143</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1317,16 +1317,16 @@
         <v>11554.6218487395</v>
       </c>
       <c r="B57">
-        <v>14.2348261661279</v>
+        <v>8.934786709659056</v>
       </c>
       <c r="C57">
-        <v>6.427031023584988</v>
+        <v>4.958563131234184</v>
       </c>
       <c r="D57">
-        <v>21.39059610442957</v>
+        <v>10.12092524722756</v>
       </c>
       <c r="E57">
-        <v>4.220742979428938</v>
+        <v>-1.069931956969808</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1334,16 +1334,16 @@
         <v>11764.70588235294</v>
       </c>
       <c r="B58">
-        <v>15.05474101294806</v>
+        <v>9.430911556075973</v>
       </c>
       <c r="C58">
-        <v>5.405249837129206</v>
+        <v>5.961175815944346</v>
       </c>
       <c r="D58">
-        <v>22.17898071416726</v>
+        <v>10.72096332751161</v>
       </c>
       <c r="E58">
-        <v>4.276759416354969</v>
+        <v>0.7284469807012321</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1351,16 +1351,16 @@
         <v>11974.78991596639</v>
       </c>
       <c r="B59">
-        <v>14.91144862358171</v>
+        <v>10.45366931676618</v>
       </c>
       <c r="C59">
-        <v>4.685959835077859</v>
+        <v>6.692210487779806</v>
       </c>
       <c r="D59">
-        <v>22.17963518108254</v>
+        <v>10.71852432117849</v>
       </c>
       <c r="E59">
-        <v>4.591451107955975</v>
+        <v>2.015640807783913</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1368,16 +1368,16 @@
         <v>12184.87394957983</v>
       </c>
       <c r="B60">
-        <v>13.99727792147471</v>
+        <v>11.55649308484027</v>
       </c>
       <c r="C60">
-        <v>4.335901253822805</v>
+        <v>5.989930410606637</v>
       </c>
       <c r="D60">
-        <v>21.79523445053331</v>
+        <v>10.02930273049292</v>
       </c>
       <c r="E60">
-        <v>5.619170035008446</v>
+        <v>1.627696518530591</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1385,16 +1385,16 @@
         <v>12394.95798319328</v>
       </c>
       <c r="B61">
-        <v>13.30543932564997</v>
+        <v>12.53133130329291</v>
       </c>
       <c r="C61">
-        <v>2.982277528285785</v>
+        <v>5.810384485506792</v>
       </c>
       <c r="D61">
-        <v>21.79034739857177</v>
+        <v>8.698747311474484</v>
       </c>
       <c r="E61">
-        <v>6.091444631470512</v>
+        <v>2.924521907079167</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1402,16 +1402,16 @@
         <v>12605.04201680672</v>
       </c>
       <c r="B62">
-        <v>12.0514488113914</v>
+        <v>13.14520669987378</v>
       </c>
       <c r="C62">
-        <v>3.108995994609176</v>
+        <v>5.745105853132363</v>
       </c>
       <c r="D62">
-        <v>20.98477525353002</v>
+        <v>8.588378964453076</v>
       </c>
       <c r="E62">
-        <v>6.57854500384636</v>
+        <v>3.423310442993137</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1419,16 +1419,16 @@
         <v>12815.12605042017</v>
       </c>
       <c r="B63">
-        <v>10.76134090851998</v>
+        <v>11.56441584686544</v>
       </c>
       <c r="C63">
-        <v>4.18908969160517</v>
+        <v>6.896779320037872</v>
       </c>
       <c r="D63">
-        <v>19.95543199078794</v>
+        <v>10.49024858735599</v>
       </c>
       <c r="E63">
-        <v>4.911274634689179</v>
+        <v>4.289877021381839</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1436,16 +1436,16 @@
         <v>13025.21008403361</v>
       </c>
       <c r="B64">
-        <v>10.94011284261384</v>
+        <v>10.49513578419401</v>
       </c>
       <c r="C64">
-        <v>4.427706658738154</v>
+        <v>7.924383453271559</v>
       </c>
       <c r="D64">
-        <v>20.03549718078932</v>
+        <v>12.44931033134323</v>
       </c>
       <c r="E64">
-        <v>4.542599955692376</v>
+        <v>4.471458136207717</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1453,16 +1453,16 @@
         <v>13235.29411764706</v>
       </c>
       <c r="B65">
-        <v>13.16920191237642</v>
+        <v>10.62012214374201</v>
       </c>
       <c r="C65">
-        <v>3.774324526222588</v>
+        <v>8.752534043675093</v>
       </c>
       <c r="D65">
-        <v>21.68363896233515</v>
+        <v>13.7962278258038</v>
       </c>
       <c r="E65">
-        <v>4.961154746076354</v>
+        <v>5.059724122270138</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1470,16 +1470,16 @@
         <v>13445.3781512605</v>
       </c>
       <c r="B66">
-        <v>15.49368985576544</v>
+        <v>11.48389196257799</v>
       </c>
       <c r="C66">
-        <v>4.203953645813457</v>
+        <v>9.421424295319712</v>
       </c>
       <c r="D66">
-        <v>23.72881884768108</v>
+        <v>13.00498914260477</v>
       </c>
       <c r="E66">
-        <v>4.276699330437989</v>
+        <v>6.290267396980505</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1487,16 +1487,16 @@
         <v>13655.46218487395</v>
       </c>
       <c r="B67">
-        <v>13.60280646754442</v>
+        <v>12.15352051815474</v>
       </c>
       <c r="C67">
-        <v>2.162225568392263</v>
+        <v>8.731268732994753</v>
       </c>
       <c r="D67">
-        <v>21.84080656029389</v>
+        <v>10.06961630391627</v>
       </c>
       <c r="E67">
-        <v>5.071637486110397</v>
+        <v>6.498781692623277</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1504,16 +1504,16 @@
         <v>13865.54621848739</v>
       </c>
       <c r="B68">
-        <v>11.86428504209655</v>
+        <v>12.01850671821302</v>
       </c>
       <c r="C68">
-        <v>2.254959600444352</v>
+        <v>8.54083436573335</v>
       </c>
       <c r="D68">
-        <v>19.79674767193716</v>
+        <v>9.521956562028141</v>
       </c>
       <c r="E68">
-        <v>3.6125749625839</v>
+        <v>6.788897269811597</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1521,16 +1521,16 @@
         <v>14075.63025210084</v>
       </c>
       <c r="B69">
-        <v>11.88237670085043</v>
+        <v>11.88855856653119</v>
       </c>
       <c r="C69">
-        <v>2.459288070910845</v>
+        <v>8.411848374957884</v>
       </c>
       <c r="D69">
-        <v>18.92221269616167</v>
+        <v>10.70089511046697</v>
       </c>
       <c r="E69">
-        <v>0.9060106197483799</v>
+        <v>7.122799804111299</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1538,16 +1538,16 @@
         <v>14285.71428571428</v>
       </c>
       <c r="B70">
-        <v>11.90313463788916</v>
+        <v>11.91605442549253</v>
       </c>
       <c r="C70">
-        <v>1.875301757370957</v>
+        <v>8.261375499229409</v>
       </c>
       <c r="D70">
-        <v>17.80156312194815</v>
+        <v>10.78140963153789</v>
       </c>
       <c r="E70">
-        <v>-1.708820647260448</v>
+        <v>6.831745725571285</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1555,16 +1555,16 @@
         <v>14495.79831932773</v>
       </c>
       <c r="B71">
-        <v>12.4168114666122</v>
+        <v>12.43753261511267</v>
       </c>
       <c r="C71">
-        <v>0.3838515899120134</v>
+        <v>7.965654078791738</v>
       </c>
       <c r="D71">
-        <v>16.26345199495722</v>
+        <v>11.10866112169155</v>
       </c>
       <c r="E71">
-        <v>-1.480677084051671</v>
+        <v>8.220362291423601</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1572,16 +1572,16 @@
         <v>14705.88235294118</v>
       </c>
       <c r="B72">
-        <v>15.2277727039495</v>
+        <v>14.12573140053019</v>
       </c>
       <c r="C72">
-        <v>0.4592463194669083</v>
+        <v>8.594369913719307</v>
       </c>
       <c r="D72">
-        <v>15.82266888898367</v>
+        <v>12.70707477124783</v>
       </c>
       <c r="E72">
-        <v>1.267045121595376</v>
+        <v>10.73039502677985</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1589,16 +1589,16 @@
         <v>14915.96638655462</v>
       </c>
       <c r="B73">
-        <v>17.07781548732719</v>
+        <v>15.7580459072237</v>
       </c>
       <c r="C73">
-        <v>2.406950216539312</v>
+        <v>9.227955291329561</v>
       </c>
       <c r="D73">
-        <v>15.41641363322539</v>
+        <v>12.01080436461561</v>
       </c>
       <c r="E73">
-        <v>5.174010190928542</v>
+        <v>10.69545835732301</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1606,16 +1606,16 @@
         <v>15126.05042016807</v>
       </c>
       <c r="B74">
-        <v>16.81588206100417</v>
+        <v>14.22693344906618</v>
       </c>
       <c r="C74">
-        <v>1.942834956097595</v>
+        <v>11.64816070673239</v>
       </c>
       <c r="D74">
-        <v>15.25662052708181</v>
+        <v>10.92200738817966</v>
       </c>
       <c r="E74">
-        <v>3.120649108813368</v>
+        <v>14.34979600375104</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1623,16 +1623,16 @@
         <v>15336.13445378151</v>
       </c>
       <c r="B75">
-        <v>15.23702066978419</v>
+        <v>9.826106032396938</v>
       </c>
       <c r="C75">
-        <v>1.784117352189642</v>
+        <v>12.28007131236705</v>
       </c>
       <c r="D75">
-        <v>15.57018109414088</v>
+        <v>10.96940490528086</v>
       </c>
       <c r="E75">
-        <v>-1.356664853412235</v>
+        <v>14.40656988878958</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1640,16 +1640,16 @@
         <v>15546.21848739496</v>
       </c>
       <c r="B76">
-        <v>13.72898219100433</v>
+        <v>8.788096610544095</v>
       </c>
       <c r="C76">
-        <v>3.921627193297286</v>
+        <v>10.47266621919403</v>
       </c>
       <c r="D76">
-        <v>16.19407064716048</v>
+        <v>11.64934858298022</v>
       </c>
       <c r="E76">
-        <v>-1.022267848833169</v>
+        <v>7.512317746558838</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1657,16 +1657,16 @@
         <v>15756.3025210084</v>
       </c>
       <c r="B77">
-        <v>12.78573367505988</v>
+        <v>8.996794148038816</v>
       </c>
       <c r="C77">
-        <v>4.781699120759971</v>
+        <v>7.599773161226902</v>
       </c>
       <c r="D77">
-        <v>16.66741629020818</v>
+        <v>12.18720927721342</v>
       </c>
       <c r="E77">
-        <v>-3.478231991045714</v>
+        <v>2.326246387818829</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1674,16 +1674,16 @@
         <v>15966.38655462185</v>
       </c>
       <c r="B78">
-        <v>12.49977727288447</v>
+        <v>9.991479077689556</v>
       </c>
       <c r="C78">
-        <v>4.807226270956418</v>
+        <v>6.201066879394196</v>
       </c>
       <c r="D78">
-        <v>15.43778634298159</v>
+        <v>11.58246242541817</v>
       </c>
       <c r="E78">
-        <v>-5.800684844483436</v>
+        <v>0.9168089510694641</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1691,16 +1691,16 @@
         <v>16176.47058823529</v>
       </c>
       <c r="B79">
-        <v>10.77450360434545</v>
+        <v>8.73474291119267</v>
       </c>
       <c r="C79">
-        <v>3.742133127195151</v>
+        <v>6.848365963850986</v>
       </c>
       <c r="D79">
-        <v>11.65886459496066</v>
+        <v>9.811935575401924</v>
       </c>
       <c r="E79">
-        <v>-4.407447658095417</v>
+        <v>3.881133063628286</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1708,16 +1708,16 @@
         <v>16386.55462184874</v>
       </c>
       <c r="B80">
-        <v>9.892180357957816</v>
+        <v>6.525132482529315</v>
       </c>
       <c r="C80">
-        <v>2.760272492460589</v>
+        <v>7.615993327628297</v>
       </c>
       <c r="D80">
-        <v>11.89698325794999</v>
+        <v>10.02254518168584</v>
       </c>
       <c r="E80">
-        <v>-0.8393885594623933</v>
+        <v>7.12783131184172</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1725,16 +1725,16 @@
         <v>16596.63865546219</v>
       </c>
       <c r="B81">
-        <v>12.05951897023483</v>
+        <v>5.025799236759637</v>
       </c>
       <c r="C81">
-        <v>2.836896822397766</v>
+        <v>5.977456400031999</v>
       </c>
       <c r="D81">
-        <v>13.14639521886457</v>
+        <v>10.32534784328225</v>
       </c>
       <c r="E81">
-        <v>-2.008958804296133</v>
+        <v>4.676356072048466</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1742,16 +1742,16 @@
         <v>16806.72268907563</v>
       </c>
       <c r="B82">
-        <v>11.00283183268433</v>
+        <v>4.317708935090472</v>
       </c>
       <c r="C82">
-        <v>2.706431285013859</v>
+        <v>4.882323837850393</v>
       </c>
       <c r="D82">
-        <v>11.2787131500972</v>
+        <v>9.917990561147954</v>
       </c>
       <c r="E82">
-        <v>-3.695758353959939</v>
+        <v>2.73039294903627</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1759,16 +1759,16 @@
         <v>17016.80672268907</v>
       </c>
       <c r="B83">
-        <v>9.097176895882416</v>
+        <v>4.09098193694597</v>
       </c>
       <c r="C83">
-        <v>2.419239899428792</v>
+        <v>5.973862593807187</v>
       </c>
       <c r="D83">
-        <v>9.007661629903566</v>
+        <v>9.464891738114737</v>
       </c>
       <c r="E83">
-        <v>-3.073114772110273</v>
+        <v>5.089246810847119</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1776,16 +1776,16 @@
         <v>17226.89075630252</v>
       </c>
       <c r="B84">
-        <v>7.367427720366424</v>
+        <v>3.748814135941784</v>
       </c>
       <c r="C84">
-        <v>2.769040419030247</v>
+        <v>7.216576009780207</v>
       </c>
       <c r="D84">
-        <v>7.417081109998181</v>
+        <v>9.193887539601246</v>
       </c>
       <c r="E84">
-        <v>-3.132726662789226</v>
+        <v>7.291556030313558</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1793,16 +1793,16 @@
         <v>17436.97478991597</v>
       </c>
       <c r="B85">
-        <v>5.800435590988419</v>
+        <v>3.293504389578672</v>
       </c>
       <c r="C85">
-        <v>3.995246891100139</v>
+        <v>7.16571333918211</v>
       </c>
       <c r="D85">
-        <v>6.195292943087841</v>
+        <v>8.964461061914427</v>
       </c>
       <c r="E85">
-        <v>-5.661480109241023</v>
+        <v>6.241222787492433</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1810,16 +1810,16 @@
         <v>17647.05882352941</v>
       </c>
       <c r="B86">
-        <v>4.798414454427866</v>
+        <v>3.0272718034782</v>
       </c>
       <c r="C86">
-        <v>4.971578938889031</v>
+        <v>6.579955247498025</v>
       </c>
       <c r="D86">
-        <v>5.418064934369843</v>
+        <v>8.779541246588872</v>
       </c>
       <c r="E86">
-        <v>-8.528172484108264</v>
+        <v>4.355128731457272</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1827,16 +1827,16 @@
         <v>17857.14285714286</v>
       </c>
       <c r="B87">
-        <v>3.907876798106196</v>
+        <v>2.854719483344642</v>
       </c>
       <c r="C87">
-        <v>4.157721338636563</v>
+        <v>5.535790743973118</v>
       </c>
       <c r="D87">
-        <v>4.282860308579185</v>
+        <v>8.302728292616461</v>
       </c>
       <c r="E87">
-        <v>-10.25147071227205</v>
+        <v>2.781070841477042</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1844,16 +1844,16 @@
         <v>18067.2268907563</v>
       </c>
       <c r="B88">
-        <v>3.128654532206252</v>
+        <v>2.410056346900749</v>
       </c>
       <c r="C88">
-        <v>-0.04404314523737174</v>
+        <v>6.776813911849493</v>
       </c>
       <c r="D88">
-        <v>2.126914354898536</v>
+        <v>7.199102421981648</v>
       </c>
       <c r="E88">
-        <v>-5.621944289727002</v>
+        <v>8.634181483019399</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1861,16 +1861,16 @@
         <v>18277.31092436975</v>
       </c>
       <c r="B89">
-        <v>1.570536445993034</v>
+        <v>2.218207306619704</v>
       </c>
       <c r="C89">
-        <v>-3.576415388315385</v>
+        <v>6.060504491741984</v>
       </c>
       <c r="D89">
-        <v>0.574751596101005</v>
+        <v>6.005761094426335</v>
       </c>
       <c r="E89">
-        <v>-2.747627141817927</v>
+        <v>9.087997605584071</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1878,16 +1878,16 @@
         <v>18487.39495798319</v>
       </c>
       <c r="B90">
-        <v>-2.124117599308724</v>
+        <v>2.976115863906622</v>
       </c>
       <c r="C90">
-        <v>0.2741173840906237</v>
+        <v>5.60573617188315</v>
       </c>
       <c r="D90">
-        <v>-1.810871592758954</v>
+        <v>2.707793239168232</v>
       </c>
       <c r="E90">
-        <v>-1.024775703099829</v>
+        <v>6.368996890783699</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1895,16 +1895,16 @@
         <v>18697.47899159664</v>
       </c>
       <c r="B91">
-        <v>-1.499528086130747</v>
+        <v>2.856941019065263</v>
       </c>
       <c r="C91">
-        <v>1.566346223232017</v>
+        <v>6.50083259153387</v>
       </c>
       <c r="D91">
-        <v>-1.569215456801736</v>
+        <v>-0.2345759971775929</v>
       </c>
       <c r="E91">
-        <v>6.628239166510475</v>
+        <v>6.892697447360506</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1912,16 +1912,16 @@
         <v>18907.56302521008</v>
       </c>
       <c r="B92">
-        <v>-2.798662571234097</v>
+        <v>-0.9193977869134212</v>
       </c>
       <c r="C92">
-        <v>2.572730320503437</v>
+        <v>1.620947311970423</v>
       </c>
       <c r="D92">
-        <v>-0.5934131115458233</v>
+        <v>0.1010931634364953</v>
       </c>
       <c r="E92">
-        <v>4.942247046680917</v>
+        <v>-1.998155274591962</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1929,16 +1929,16 @@
         <v>19117.64705882353</v>
       </c>
       <c r="B93">
-        <v>-3.575703349669316</v>
+        <v>-2.48697962962029</v>
       </c>
       <c r="C93">
-        <v>3.136560461623819</v>
+        <v>0.4576632603647388</v>
       </c>
       <c r="D93">
-        <v>-0.05765683072738859</v>
+        <v>0.5343707238536914</v>
       </c>
       <c r="E93">
-        <v>1.135959474291119</v>
+        <v>-4.804299057695687</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1946,16 +1946,16 @@
         <v>19327.73109243697</v>
       </c>
       <c r="B94">
-        <v>-2.225182948948933</v>
+        <v>-1.846790984260322</v>
       </c>
       <c r="C94">
-        <v>2.86444777066307</v>
+        <v>5.030707313475457</v>
       </c>
       <c r="D94">
-        <v>0.3862066123474837</v>
+        <v>0.1688222194304758</v>
       </c>
       <c r="E94">
-        <v>-0.6286898212885697</v>
+        <v>2.387317075631286</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1963,16 +1963,16 @@
         <v>19537.81512605042</v>
       </c>
       <c r="B95">
-        <v>0.2702756313091685</v>
+        <v>-0.5505875901643881</v>
       </c>
       <c r="C95">
-        <v>3.730131796469412</v>
+        <v>4.153569748996341</v>
       </c>
       <c r="D95">
-        <v>0.4534540686215207</v>
+        <v>-0.5926711111787787</v>
       </c>
       <c r="E95">
-        <v>-5.947747991337213</v>
+        <v>-0.5750485378042591</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1980,16 +1980,16 @@
         <v>19747.89915966387</v>
       </c>
       <c r="B96">
-        <v>2.941981753335806</v>
+        <v>0.4048807460487525</v>
       </c>
       <c r="C96">
-        <v>4.017537983872259</v>
+        <v>1.503554650852077</v>
       </c>
       <c r="D96">
-        <v>0.8584472355190078</v>
+        <v>-1.163921709111251</v>
       </c>
       <c r="E96">
-        <v>-4.495990900150579</v>
+        <v>-3.9652695171866</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1997,16 +1997,16 @@
         <v>19957.98319327731</v>
       </c>
       <c r="B97">
-        <v>2.409606581541111</v>
+        <v>-0.462518421398832</v>
       </c>
       <c r="C97">
-        <v>3.586809266120009</v>
+        <v>2.141473188095948</v>
       </c>
       <c r="D97">
-        <v>0.6591558911254549</v>
+        <v>-1.528595202295689</v>
       </c>
       <c r="E97">
-        <v>2.86297939849074</v>
+        <v>-0.7388303766475872</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2014,16 +2014,16 @@
         <v>20168.06722689075</v>
       </c>
       <c r="B98">
-        <v>-1.04022215694834</v>
+        <v>-2.938193225336739</v>
       </c>
       <c r="C98">
-        <v>4.050291123468329</v>
+        <v>2.828971333289054</v>
       </c>
       <c r="D98">
-        <v>-0.6465969889195589</v>
+        <v>-1.918447641345553</v>
       </c>
       <c r="E98">
-        <v>4.697931313294314</v>
+        <v>-0.1778012377468738</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2031,16 +2031,16 @@
         <v>20378.1512605042</v>
       </c>
       <c r="B99">
-        <v>-3.497059304148628</v>
+        <v>-5.38807417739645</v>
       </c>
       <c r="C99">
-        <v>4.139916749591145</v>
+        <v>1.623032127180418</v>
       </c>
       <c r="D99">
-        <v>-1.516806422692365</v>
+        <v>-2.021713033695854</v>
       </c>
       <c r="E99">
-        <v>3.01143991326685</v>
+        <v>-2.655863210741752</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2048,16 +2048,16 @@
         <v>20588.23529411765</v>
       </c>
       <c r="B100">
-        <v>-3.992717735282207</v>
+        <v>-6.134281626961027</v>
       </c>
       <c r="C100">
-        <v>3.430111074426224</v>
+        <v>0.2052894591377106</v>
       </c>
       <c r="D100">
-        <v>-2.889171911696799</v>
+        <v>-2.592413262696271</v>
       </c>
       <c r="E100">
-        <v>2.816976764514892</v>
+        <v>-3.378311639596173</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2065,16 +2065,16 @@
         <v>20798.31932773109</v>
       </c>
       <c r="B101">
-        <v>-4.126328806563563</v>
+        <v>-4.731930787468897</v>
       </c>
       <c r="C101">
-        <v>2.900933384016172</v>
+        <v>0.4785512660743796</v>
       </c>
       <c r="D101">
-        <v>-3.491010583449632</v>
+        <v>-3.331994467242576</v>
       </c>
       <c r="E101">
-        <v>1.802379742738462</v>
+        <v>-2.062207967963838</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2082,16 +2082,16 @@
         <v>21008.40336134454</v>
       </c>
       <c r="B102">
-        <v>-2.338900437587434</v>
+        <v>-3.950419351688045</v>
       </c>
       <c r="C102">
-        <v>5.089017470196731</v>
+        <v>2.069993279624932</v>
       </c>
       <c r="D102">
-        <v>-1.885008197272336</v>
+        <v>-1.608844238771859</v>
       </c>
       <c r="E102">
-        <v>-1.408979447552835</v>
+        <v>-1.492412533583337</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2099,16 +2099,16 @@
         <v>21218.48739495798</v>
       </c>
       <c r="B103">
-        <v>1.793572918840529</v>
+        <v>-1.42784358646829</v>
       </c>
       <c r="C103">
-        <v>5.092965868747306</v>
+        <v>3.344662945053683</v>
       </c>
       <c r="D103">
-        <v>-1.866985048239586</v>
+        <v>-0.4081868031495186</v>
       </c>
       <c r="E103">
-        <v>-1.911347653336072</v>
+        <v>0.5218738296279097</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2116,16 +2116,16 @@
         <v>21428.57142857143</v>
       </c>
       <c r="B104">
-        <v>2.386942761608074</v>
+        <v>-1.054890604878862</v>
       </c>
       <c r="C104">
-        <v>1.899010054764667</v>
+        <v>4.500663205335263</v>
       </c>
       <c r="D104">
-        <v>-1.284517287895782</v>
+        <v>0.3108393795983959</v>
       </c>
       <c r="E104">
-        <v>1.257783479950522</v>
+        <v>4.935919500382616</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2133,16 +2133,16 @@
         <v>21638.65546218487</v>
       </c>
       <c r="B105">
-        <v>-3.352846631491833</v>
+        <v>-4.370010929204664</v>
       </c>
       <c r="C105">
-        <v>0.1258827850078679</v>
+        <v>6.601072133748291</v>
       </c>
       <c r="D105">
-        <v>-2.139761046870254</v>
+        <v>1.483339186666426</v>
       </c>
       <c r="E105">
-        <v>2.416873293322864</v>
+        <v>11.67585488837648</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2150,16 +2150,16 @@
         <v>21848.73949579832</v>
       </c>
       <c r="B106">
-        <v>-5.150173220525947</v>
+        <v>-5.107216951516763</v>
       </c>
       <c r="C106">
-        <v>-2.406794637986886</v>
+        <v>6.16537288482399</v>
       </c>
       <c r="D106">
-        <v>-3.574997176445058</v>
+        <v>0.1311713636834151</v>
       </c>
       <c r="E106">
-        <v>1.293946018409462</v>
+        <v>14.31342576199282</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2167,16 +2167,16 @@
         <v>22058.82352941176</v>
       </c>
       <c r="B107">
-        <v>-3.698429349809084</v>
+        <v>-2.863721051923151</v>
       </c>
       <c r="C107">
-        <v>-4.622185771100814</v>
+        <v>4.633825908491629</v>
       </c>
       <c r="D107">
-        <v>-4.643468289491192</v>
+        <v>-2.013060221303033</v>
       </c>
       <c r="E107">
-        <v>4.600408563250109</v>
+        <v>11.10735220843434</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2184,16 +2184,16 @@
         <v>22268.90756302521</v>
       </c>
       <c r="B108">
-        <v>-2.417293756441937</v>
+        <v>-2.504029673481278</v>
       </c>
       <c r="C108">
-        <v>-1.144861996508704</v>
+        <v>3.862863050143234</v>
       </c>
       <c r="D108">
-        <v>-3.026824914126121</v>
+        <v>-6.217469224054506</v>
       </c>
       <c r="E108">
-        <v>6.122678883766866</v>
+        <v>5.976975017756554</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2201,16 +2201,16 @@
         <v>22478.99159663865</v>
       </c>
       <c r="B109">
-        <v>-5.349091913931136</v>
+        <v>-3.747576494264521</v>
       </c>
       <c r="C109">
-        <v>0.3972897903368275</v>
+        <v>1.875432079630333</v>
       </c>
       <c r="D109">
-        <v>-3.368615889091951</v>
+        <v>-6.42579729927631</v>
       </c>
       <c r="E109">
-        <v>5.421955555298551</v>
+        <v>2.157267678771164</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2218,16 +2218,16 @@
         <v>22689.0756302521</v>
       </c>
       <c r="B110">
-        <v>-7.165463870896286</v>
+        <v>-3.254963228378646</v>
       </c>
       <c r="C110">
-        <v>1.097871595207756</v>
+        <v>-1.598309364462532</v>
       </c>
       <c r="D110">
-        <v>-5.677465789376941</v>
+        <v>-5.870936142688053</v>
       </c>
       <c r="E110">
-        <v>1.229082465541282</v>
+        <v>-3.405036602195671</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2235,16 +2235,16 @@
         <v>22899.15966386555</v>
       </c>
       <c r="B111">
-        <v>-4.544077318094148</v>
+        <v>-2.07955439185503</v>
       </c>
       <c r="C111">
-        <v>1.975426811724021</v>
+        <v>-4.592177119639032</v>
       </c>
       <c r="D111">
-        <v>-5.787761105774453</v>
+        <v>-7.025480699583789</v>
       </c>
       <c r="E111">
-        <v>-1.600284290410242</v>
+        <v>-7.01958348903317</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2252,16 +2252,16 @@
         <v>23109.24369747899</v>
       </c>
       <c r="B112">
-        <v>-2.186503829744629</v>
+        <v>-1.337863565552989</v>
       </c>
       <c r="C112">
-        <v>3.22701195165688</v>
+        <v>-5.273801636708716</v>
       </c>
       <c r="D112">
-        <v>-5.948063781182506</v>
+        <v>-7.697806178662846</v>
       </c>
       <c r="E112">
-        <v>-2.792341634095307</v>
+        <v>-6.742977129100293</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2269,16 +2269,16 @@
         <v>23319.32773109243</v>
       </c>
       <c r="B113">
-        <v>0.1477942331862678</v>
+        <v>0.006130102278321559</v>
       </c>
       <c r="C113">
-        <v>2.704201496602059</v>
+        <v>-3.594939875886742</v>
       </c>
       <c r="D113">
-        <v>-5.416524129335047</v>
+        <v>-7.151721123012603</v>
       </c>
       <c r="E113">
-        <v>-2.621746013044752</v>
+        <v>-3.724660716442898</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2286,16 +2286,16 @@
         <v>23529.41176470588</v>
       </c>
       <c r="B114">
-        <v>0.6668574879626554</v>
+        <v>1.383675290004359</v>
       </c>
       <c r="C114">
-        <v>-0.04671780440753293</v>
+        <v>-0.3639241030809494</v>
       </c>
       <c r="D114">
-        <v>-4.519340790031496</v>
+        <v>-4.505995019322921</v>
       </c>
       <c r="E114">
-        <v>-1.567516086551494</v>
+        <v>0.6105708064440113</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2303,16 +2303,16 @@
         <v>23739.49579831933</v>
       </c>
       <c r="B115">
-        <v>-0.8907087737166108</v>
+        <v>1.757975866166118</v>
       </c>
       <c r="C115">
-        <v>1.965848784100211</v>
+        <v>3.013055181769851</v>
       </c>
       <c r="D115">
-        <v>-3.428812227519301</v>
+        <v>-4.553050811008895</v>
       </c>
       <c r="E115">
-        <v>-4.041146940386656</v>
+        <v>5.576347514078421</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2320,16 +2320,16 @@
         <v>23949.57983193277</v>
       </c>
       <c r="B116">
-        <v>-1.178561828872116</v>
+        <v>0.9088166226787995</v>
       </c>
       <c r="C116">
-        <v>2.505509978664407</v>
+        <v>4.403194492201025</v>
       </c>
       <c r="D116">
-        <v>-3.047311339729556</v>
+        <v>-5.047119972342542</v>
       </c>
       <c r="E116">
-        <v>-4.560302144193765</v>
+        <v>8.014767914076144</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2337,16 +2337,16 @@
         <v>24159.66386554622</v>
       </c>
       <c r="B117">
-        <v>-0.4020685409852036</v>
+        <v>-3.829732661227002</v>
       </c>
       <c r="C117">
-        <v>0.144684353212029</v>
+        <v>3.467105250299122</v>
       </c>
       <c r="D117">
-        <v>-2.371253818918512</v>
+        <v>-2.86287049968433</v>
       </c>
       <c r="E117">
-        <v>-1.028965284756717</v>
+        <v>7.061329216793295</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2354,16 +2354,16 @@
         <v>24369.74789915966</v>
       </c>
       <c r="B118">
-        <v>-2.408027408902068</v>
+        <v>-4.389377184191922</v>
       </c>
       <c r="C118">
-        <v>0.3925541084704185</v>
+        <v>3.462498379681901</v>
       </c>
       <c r="D118">
-        <v>-2.868587950830498</v>
+        <v>-2.6082871272023</v>
       </c>
       <c r="E118">
-        <v>-0.5230396581444502</v>
+        <v>6.554262396926884</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2371,16 +2371,16 @@
         <v>24579.83193277311</v>
       </c>
       <c r="B119">
-        <v>-5.164221333767551</v>
+        <v>-4.862470219145245</v>
       </c>
       <c r="C119">
-        <v>0.331232582343433</v>
+        <v>2.857056720337495</v>
       </c>
       <c r="D119">
-        <v>-4.084441424806492</v>
+        <v>-3.66446932022556</v>
       </c>
       <c r="E119">
-        <v>-1.357546475276259</v>
+        <v>4.763621850337391</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2388,16 +2388,16 @@
         <v>24789.91596638655</v>
       </c>
       <c r="B120">
-        <v>-8.691680896532148</v>
+        <v>-5.470237780661927</v>
       </c>
       <c r="C120">
-        <v>0.05018065782765968</v>
+        <v>2.909881702428469</v>
       </c>
       <c r="D120">
-        <v>-4.952491355783527</v>
+        <v>-5.405728699497386</v>
       </c>
       <c r="E120">
-        <v>-3.529117770162151</v>
+        <v>4.656241573246125</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2405,16 +2405,16 @@
         <v>25000</v>
       </c>
       <c r="B121">
-        <v>-6.674445454524127</v>
+        <v>-4.255966908423388</v>
       </c>
       <c r="C121">
-        <v>2.21694525392741</v>
+        <v>1.644187698168344</v>
       </c>
       <c r="D121">
-        <v>-5.665048419825472</v>
+        <v>-4.700767905311792</v>
       </c>
       <c r="E121">
-        <v>-8.134279420513808</v>
+        <v>2.376647202553575</v>
       </c>
     </row>
   </sheetData>
